--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_3/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_3/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.383</v>
+        <v>-0.144</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.053</v>
+        <v>29.232</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.451</v>
+        <v>-0.843</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.114</v>
+        <v>23.795</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.614</v>
+        <v>-0.002</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.76</v>
+        <v>28.594</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5.733715942601211</v>
+        <v>36.26051581113838</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>22.39603604951883</v>
+        <v>36.26051584661119</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>26.79667126216401</v>
+        <v>36.26051585827425</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5.059270493784989</v>
+        <v>36.26051583549572</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>23.90389061138822</v>
+        <v>36.2605158756655</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>28.88741257304676</v>
+        <v>36.26051588887287</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>13.36943036395564</v>
+        <v>36.26051584083766</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>30.13604719070851</v>
+        <v>36.26051587664045</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>34.57116456202767</v>
+        <v>36.26051588841201</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>34.88584504355013</v>
+        <v>36.26051589809646</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>41.03930675482191</v>
+        <v>36.260515914981</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>44.87471405181669</v>
+        <v>36.26051592158997</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>16.14940496096535</v>
+        <v>36.26051587188944</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>37.14023390831798</v>
+        <v>36.26051591663034</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>42.75173021724916</v>
+        <v>36.26051592997749</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>8.350425228026463</v>
+        <v>36.26051587863656</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>27.7801682044199</v>
+        <v>36.26051591901837</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>33.72636642708486</v>
+        <v>36.26051593324414</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5.049838054782906</v>
+        <v>36.2605159046601</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>27.0286950570331</v>
+        <v>36.26051595038888</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>33.761475720456</v>
+        <v>36.26051596649827</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>15.72434171121768</v>
+        <v>36.26051591568642</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>35.28035494369998</v>
+        <v>36.26051595644388</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>41.27207663295314</v>
+        <v>36.26051597080198</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>39.75104470379387</v>
+        <v>36.2605159756214</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>47.3460631777196</v>
+        <v>36.26051599568846</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>52.07583909208592</v>
+        <v>36.26051600334722</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>20.09941888036648</v>
+        <v>36.26051594497293</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>45.3654573301415</v>
+        <v>36.26051599662593</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>52.38903156710469</v>
+        <v>36.26051601260262</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>17.41665122122744</v>
+        <v>36.26051593959045</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>38.09864081065504</v>
+        <v>36.26051598006752</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>44.03043317004342</v>
+        <v>36.26051599428745</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>15.35921348384713</v>
+        <v>36.26051596619921</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>38.75615761848651</v>
+        <v>36.26051601203586</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>45.4731974365329</v>
+        <v>36.26051602813865</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>27.90792624274356</v>
+        <v>36.26051597912734</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>48.72784334052945</v>
+        <v>36.26051601998094</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>54.70567267671663</v>
+        <v>36.26051603433315</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>56.08482681523391</v>
+        <v>36.26051603657717</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>64.13885651699289</v>
+        <v>36.26051605604592</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>69.04463762355729</v>
+        <v>36.26051606316588</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>34.95012332849377</v>
+        <v>36.26051600369311</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>61.64422447721099</v>
+        <v>36.26051605510964</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>68.75865779069947</v>
+        <v>36.2605160710215</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>7.703676761242328</v>
+        <v>36.26051581208409</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>25.22708513863427</v>
+        <v>36.2605158482362</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>29.15068517490988</v>
+        <v>36.26051585938148</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>7.219643009929094</v>
+        <v>36.26051583586494</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>27.03926943131584</v>
+        <v>36.26051587680394</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>31.4833104678376</v>
+        <v>36.26051588942498</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>15.78909785242814</v>
+        <v>36.26051584119924</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>33.42452162073103</v>
+        <v>36.26051587768765</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>37.37913054924759</v>
+        <v>36.2605158889366</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>37.41991679285329</v>
+        <v>36.26051589777316</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>44.03933857661478</v>
+        <v>36.26051591450879</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>47.45660061185951</v>
+        <v>36.26051592066802</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>17.69164995158318</v>
+        <v>36.26051587028635</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>39.81772430949484</v>
+        <v>36.26051591588261</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>44.85875341613227</v>
+        <v>36.2605159286089</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>8.955599425930746</v>
+        <v>36.26051587408938</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>29.15012806349957</v>
+        <v>36.26051591507059</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>34.47994512757496</v>
+        <v>36.26051592856735</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>5.724376087253678</v>
+        <v>36.26051589920035</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>28.56929341748497</v>
+        <v>36.26051594560789</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>34.60466501406829</v>
+        <v>36.26051596089177</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>16.82303582172874</v>
+        <v>36.26051591021718</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>37.15078636694424</v>
+        <v>36.26051595157962</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>42.52154667982536</v>
+        <v>36.26051596520193</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>41.0866453899928</v>
+        <v>36.26051596981575</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>49.12126545164799</v>
+        <v>36.26051598955512</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>53.38134798339638</v>
+        <v>36.2605159967413</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>20.66690131311752</v>
+        <v>36.26051593799884</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>46.94564634582392</v>
+        <v>36.26051599033189</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>53.27280101039918</v>
+        <v>36.26051600550698</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>17.7905348186455</v>
+        <v>36.26051593381067</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>39.16686044522351</v>
+        <v>36.26051597486548</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>44.54250142861432</v>
+        <v>36.26051598833405</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>15.83189873133291</v>
+        <v>36.26051595978348</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>40.01532657373927</v>
+        <v>36.26051600627436</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>46.1029640004553</v>
+        <v>36.26051602152631</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>28.75261730570381</v>
+        <v>36.26051597254227</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>50.27333722837182</v>
+        <v>36.26051601397899</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>55.69078589539761</v>
+        <v>36.26051602757285</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>57.01606185579024</v>
+        <v>36.26051602989271</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>65.44097270072902</v>
+        <v>36.26051604910832</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>69.93652476290774</v>
+        <v>36.26051605578256</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>35.20525689116313</v>
+        <v>36.26051599598581</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>62.84282642911056</v>
+        <v>36.26051604811125</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>69.31212163117817</v>
+        <v>36.26051606317532</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>7.115997258454605</v>
+        <v>36.26051581136762</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>24.58193416446128</v>
+        <v>36.26051584754046</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>28.48248974922068</v>
+        <v>36.26051585866247</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>6.579574624528263</v>
+        <v>36.26051583514578</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>26.33392965984684</v>
+        <v>36.26051587610827</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>30.75189549853576</v>
+        <v>36.26051588870294</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>15.12540789461839</v>
+        <v>36.26051584046542</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>32.70269288438389</v>
+        <v>36.26051587697476</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>36.63407659645173</v>
+        <v>36.26051588820022</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>36.83175268212567</v>
+        <v>36.2605158971993</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>43.42579256856143</v>
+        <v>36.26051591394804</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>46.82023630873296</v>
+        <v>36.26051592010661</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>17.15236060110136</v>
+        <v>36.26051586975598</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>39.21982892723</v>
+        <v>36.26051591538065</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>44.22723239449536</v>
+        <v>36.26051592808473</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>8.901061731722521</v>
+        <v>36.26051587394349</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>29.0603100773724</v>
+        <v>36.26051591497733</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>34.35929248098813</v>
+        <v>36.26051592844045</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>5.645962884646401</v>
+        <v>36.2605158991262</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>28.45073021694584</v>
+        <v>36.26051594559333</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>34.45124133376991</v>
+        <v>36.2605159608391</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>16.74709023013022</v>
+        <v>36.2605159101453</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>37.03905195037289</v>
+        <v>36.26051595156085</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>42.37875692080222</v>
+        <v>36.26051596514921</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>41.07838187918851</v>
+        <v>36.26051596991275</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>49.08870081162604</v>
+        <v>36.26051598967106</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>53.31688962300903</v>
+        <v>36.26051599684706</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>20.67023975479206</v>
+        <v>36.2605159380903</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>46.91060335659626</v>
+        <v>36.26051599048668</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>53.19309281866486</v>
+        <v>36.26051600562727</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>17.80420476415854</v>
+        <v>36.2605159339961</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>39.16560013400143</v>
+        <v>36.26051597510933</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>44.51107996085223</v>
+        <v>36.26051598853993</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>15.83281562380111</v>
+        <v>36.26051596003674</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>39.99911463316491</v>
+        <v>36.26051600659378</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>46.05266376337123</v>
+        <v>36.26051602180273</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>28.76455080482294</v>
+        <v>36.26051597281136</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>50.26998959766854</v>
+        <v>36.26051601430704</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>55.65707323867008</v>
+        <v>36.26051602786258</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>57.10310923258544</v>
+        <v>36.26051603030385</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>65.51114561146257</v>
+        <v>36.26051604953703</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>69.97461018356341</v>
+        <v>36.26051605619833</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>35.28550005622978</v>
+        <v>36.26051599638369</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>62.90954788314309</v>
+        <v>36.26051604857449</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>69.33560276922896</v>
+        <v>36.26051606359865</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>3.268713923921162</v>
+        <v>36.26051580675653</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>19.67083271005466</v>
+        <v>36.26051584202506</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>23.99168315394191</v>
+        <v>36.26051585352491</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>2.270011131689245</v>
+        <v>36.26051583057674</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>20.82007042989935</v>
+        <v>36.26051587051517</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>25.71311414806975</v>
+        <v>36.26051588353772</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>10.39385166783306</v>
+        <v>36.26051583567018</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>26.89826232065516</v>
+        <v>36.26051587126678</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>31.25285487510337</v>
+        <v>36.26051588287361</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>31.67533835252905</v>
+        <v>36.26051589277453</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>37.73237101528517</v>
+        <v>36.26051590952013</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>41.53758050461889</v>
+        <v>36.26051591607106</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>13.29364184617871</v>
+        <v>36.26051586685576</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>33.95513345927414</v>
+        <v>36.26051591131429</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>39.46184376237281</v>
+        <v>36.26051592447659</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>5.630316045113393</v>
+        <v>36.26051587354863</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>24.7662457705404</v>
+        <v>36.26051591370375</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>30.62617922907186</v>
+        <v>36.2605159277287</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>2.002615817487676</v>
+        <v>36.26051589899924</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>23.648834367223</v>
+        <v>36.26051594447131</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>30.28382113790325</v>
+        <v>36.2605159603533</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>12.46636239285414</v>
+        <v>36.26051590972579</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>31.72626385247879</v>
+        <v>36.26051595025444</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>37.63095499967122</v>
+        <v>36.26051596440986</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>36.25771543736072</v>
+        <v>36.26051596949463</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>43.73901746708439</v>
+        <v>36.26051598940033</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>48.43488407369196</v>
+        <v>36.26051599699498</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>16.96165834094114</v>
+        <v>36.26051593913471</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>41.85161067487404</v>
+        <v>36.26051599046684</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>48.76665519339965</v>
+        <v>36.26051600622302</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>14.98653560954213</v>
+        <v>36.26051593443024</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>35.37762256477293</v>
+        <v>36.26051597467929</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>41.21499188250688</v>
+        <v>36.26051598869808</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>12.56188325898923</v>
+        <v>36.26051596051341</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>35.6294839633526</v>
+        <v>36.26051600609184</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>42.23945276081288</v>
+        <v>36.26051602196686</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>24.92536113212153</v>
+        <v>36.26051597316437</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>45.45206836618318</v>
+        <v>36.26051601378784</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>51.33460779616557</v>
+        <v>36.26051602793703</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>52.80243711914002</v>
+        <v>36.26051603052267</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>60.74787198116525</v>
+        <v>36.26051604985162</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>65.61353491607194</v>
+        <v>36.26051605690467</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>32.01452966129439</v>
+        <v>36.26051599792216</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>58.33454146020367</v>
+        <v>36.26051604902516</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>65.33116963797011</v>
+        <v>36.26051606471854</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>9.264008321653332</v>
+        <v>36.26051581878006</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>26.16175875279476</v>
+        <v>36.26051585436748</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>30.41879073943134</v>
+        <v>36.26051586574299</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>8.822238939825002</v>
+        <v>36.26051584333906</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>27.93354701663027</v>
+        <v>36.26051588363863</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>32.75444157287393</v>
+        <v>36.26051589652037</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>17.21907405641575</v>
+        <v>36.26051584876767</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>34.22316431159908</v>
+        <v>36.26051588468614</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>38.51351938036732</v>
+        <v>36.26051589616748</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>38.7349719629506</v>
+        <v>36.26051590525235</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>44.97937847480657</v>
+        <v>36.26051592207831</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>48.70605328937734</v>
+        <v>36.26051592851075</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>19.71517382417901</v>
+        <v>36.26051587865675</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>40.95635268254361</v>
+        <v>36.26051592344733</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>46.38907876661646</v>
+        <v>36.26051593646337</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>12.2225504287488</v>
+        <v>36.26051588580911</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>31.86652830219781</v>
+        <v>36.2605159262835</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>37.60243693681302</v>
+        <v>36.2605159401307</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>9.176636472837981</v>
+        <v>36.26051591192824</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>31.39818175832738</v>
+        <v>36.26051595776185</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>37.89277473534398</v>
+        <v>36.26051597344257</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>19.94591633076024</v>
+        <v>36.26051592298123</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>39.71803049860469</v>
+        <v>36.26051596383213</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>45.49775203473145</v>
+        <v>36.26051597780815</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>43.9852011645964</v>
+        <v>36.26051598211486</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>51.65199009958356</v>
+        <v>36.26051600209627</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>56.23592800989475</v>
+        <v>36.26051600955486</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>24.11435636777404</v>
+        <v>36.26051595115266</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>49.59555722583097</v>
+        <v>36.26051600281225</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>56.36831900193858</v>
+        <v>36.26051601836043</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>20.54658165432532</v>
+        <v>36.2605159451793</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>41.39395898954823</v>
+        <v>36.26051598571337</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>47.13476627696505</v>
+        <v>36.26051599955668</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>18.72580729610886</v>
+        <v>36.26051597183204</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>42.31007409228461</v>
+        <v>36.26051601773322</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>48.81081122771774</v>
+        <v>36.26051603340953</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>31.32493145699311</v>
+        <v>36.26051598473048</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>52.31166610479995</v>
+        <v>36.26051602564161</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>58.09696167279404</v>
+        <v>36.26051603961371</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>59.46409409759336</v>
+        <v>36.26051604143331</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>67.58380213300291</v>
+        <v>36.26051606082864</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>72.3462474492168</v>
+        <v>36.26051606776223</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>38.16350683996847</v>
+        <v>36.26051600833414</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>65.02621043544428</v>
+        <v>36.26051605972798</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>71.90973893381158</v>
+        <v>36.26051607521876</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>11.11899409568194</v>
+        <v>36.2605158259103</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>27.99189031099115</v>
+        <v>36.26051586031562</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>31.66752417060676</v>
+        <v>36.26051587071575</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>10.88612529529044</v>
+        <v>36.26051584924181</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>29.97007883212936</v>
+        <v>36.26051588820275</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>34.13320768493166</v>
+        <v>36.26051589997996</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>19.16532336715607</v>
+        <v>36.26051585431419</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>36.14611861315455</v>
+        <v>36.26051588903956</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>39.85084081538988</v>
+        <v>36.26051589953644</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>39.94324385201405</v>
+        <v>36.26051590755926</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>46.27422081095139</v>
+        <v>36.26051592349637</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>49.51139654247697</v>
+        <v>36.26051592928469</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>20.94499054971137</v>
+        <v>36.26051588118035</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>42.13856731263456</v>
+        <v>36.26051592440639</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>46.86971053318618</v>
+        <v>36.26051593630142</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>14.54182875107005</v>
+        <v>36.26051588764484</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>34.04475507260942</v>
+        <v>36.26051592674987</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>39.0031065110354</v>
+        <v>36.26051593932911</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>11.81424419269299</v>
+        <v>36.26051591239395</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>33.87688657026592</v>
+        <v>36.26051595667688</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>39.49147784792832</v>
+        <v>36.26051597092175</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>22.53289242243478</v>
+        <v>36.26051592286078</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>42.16461147706416</v>
+        <v>36.26051596232958</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>47.16099813923498</v>
+        <v>36.26051597502585</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>45.78576162145863</v>
+        <v>36.26051597891554</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>53.49167580961381</v>
+        <v>36.26051599776977</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>57.49800363876471</v>
+        <v>36.26051600448874</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>26.09945686083874</v>
+        <v>36.26051594840496</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>51.3575750832771</v>
+        <v>36.260515998192</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>57.23479497890774</v>
+        <v>36.26051601233211</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>22.42868359003485</v>
+        <v>36.26051594307641</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>43.01628222512948</v>
+        <v>36.2605159822274</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>48.02237862356836</v>
+        <v>36.26051599478269</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>20.93471547036626</v>
+        <v>36.26051596851647</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>44.22573070061588</v>
+        <v>36.26051601285145</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>49.89488964286399</v>
+        <v>36.26051602706918</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>33.36167242243814</v>
+        <v>36.26051598061463</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>54.08825344005074</v>
+        <v>36.26051602012982</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>59.1333425555395</v>
+        <v>36.2605160328019</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>60.42059075988438</v>
+        <v>36.26051603448851</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>68.49522091017307</v>
+        <v>36.26051605283352</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>72.69511031472101</v>
+        <v>36.26051605907634</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>39.42652492576963</v>
+        <v>36.26051600206972</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>65.9449275278818</v>
+        <v>36.26051605162736</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>71.96599816079186</v>
+        <v>36.26051606567817</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>2.339457104110856</v>
+        <v>36.2605158070563</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>18.4774423900002</v>
+        <v>36.26051584103197</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>22.44161012915728</v>
+        <v>36.260515852021</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>1.538933932151068</v>
+        <v>36.26051582975071</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>19.79041565766724</v>
+        <v>36.26051586822511</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>24.28023202920478</v>
+        <v>36.26051588066919</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>9.50372961134007</v>
+        <v>36.26051583450759</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>25.74328670354462</v>
+        <v>36.26051586879932</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>29.73879727258143</v>
+        <v>36.26051587989057</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>30.17032008149999</v>
+        <v>36.26051588941617</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>36.21137545103146</v>
+        <v>36.26051590541042</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>39.67994687509884</v>
+        <v>36.2605159115888</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>11.9853291187898</v>
+        <v>36.26051586411819</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>32.36544307495681</v>
+        <v>36.26051590700141</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>37.45043181673947</v>
+        <v>36.26051591957923</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>5.374798217165949</v>
+        <v>36.26051587007309</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>24.19042052315065</v>
+        <v>36.26051590878402</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>29.58417551254072</v>
+        <v>36.26051592214603</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>2.08724198935294</v>
+        <v>36.26051589450839</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>23.37130095863827</v>
+        <v>36.26051593834505</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>29.47906052538287</v>
+        <v>36.26051595347633</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>12.48772714459024</v>
+        <v>36.26051590478692</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>31.42618244585569</v>
+        <v>36.26051594385796</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>36.86147381433598</v>
+        <v>36.26051595734427</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>35.58626024274761</v>
+        <v>36.26051596256553</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>43.03221442567232</v>
+        <v>36.26051598151601</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>47.35206811095849</v>
+        <v>36.260515988676</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>16.5471058652885</v>
+        <v>36.26051593296437</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>41.05938312191651</v>
+        <v>36.2605159824756</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>47.44724011122037</v>
+        <v>36.26051599750684</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>14.94826777697941</v>
+        <v>36.26051592919154</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>34.98043283697169</v>
+        <v>36.26051596802401</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>40.3899236367116</v>
+        <v>36.26051598137452</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>12.93742122511847</v>
+        <v>36.2605159544561</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>35.59928547178692</v>
+        <v>36.26051599843038</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>41.72533316330468</v>
+        <v>36.26051601354862</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>25.16457410725501</v>
+        <v>36.26051596650454</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>45.33091204597564</v>
+        <v>36.26051600569825</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>50.78263561750126</v>
+        <v>36.26051601917295</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>52.17934261694676</v>
+        <v>36.26051602198961</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>60.01678449798418</v>
+        <v>36.26051604041275</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>64.53186040476363</v>
+        <v>36.26051604706892</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>31.7004910426577</v>
+        <v>36.26051599027153</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>57.60543943954563</v>
+        <v>36.26051603961627</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>64.10546453922754</v>
+        <v>36.26051605455933</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>4.394696786627069</v>
+        <v>36.2605158117622</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>21.33349687386297</v>
+        <v>36.26051584760102</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>25.59667483062556</v>
+        <v>36.26051585906448</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>3.643294247961485</v>
+        <v>36.26051583611699</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>22.80089622195507</v>
+        <v>36.26051587670123</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>27.62879664158293</v>
+        <v>36.26051588968257</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>11.93444890238084</v>
+        <v>36.26051584138622</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>28.97972923502872</v>
+        <v>36.26051587755842</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>33.27626156998488</v>
+        <v>36.26051588912851</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>33.65966407480983</v>
+        <v>36.26051589853917</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>39.93664174577483</v>
+        <v>36.26051591547383</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>43.68412070262495</v>
+        <v>36.26051592196026</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>14.66055512139954</v>
+        <v>36.26051587185076</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>35.972712356788</v>
+        <v>36.26051591697922</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>41.41676575489493</v>
+        <v>36.26051593009699</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>6.795897918626643</v>
+        <v>36.26051587849739</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>26.49022911417742</v>
+        <v>36.26051591925463</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>32.24977856874577</v>
+        <v>36.26051593320547</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>3.390979112555531</v>
+        <v>36.26051590440978</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>25.66936372038202</v>
+        <v>36.26051595056369</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>32.19077855578853</v>
+        <v>36.26051596636176</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>14.07301083610973</v>
+        <v>36.26051591534856</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>33.89568742968224</v>
+        <v>36.26051595648494</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>39.69922583092708</v>
+        <v>36.26051597056556</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>38.35422580246148</v>
+        <v>36.26051597523064</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>46.06374201747717</v>
+        <v>36.26051599533412</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>50.68399723714138</v>
+        <v>36.26051600286509</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>18.50135545073735</v>
+        <v>36.26051594412922</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>44.07277512367383</v>
+        <v>36.26051599616523</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>50.8770435119374</v>
+        <v>36.26051601183842</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>15.56880079019921</v>
+        <v>36.26051593886926</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>36.48746926274252</v>
+        <v>36.26051597969639</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>42.2627765556572</v>
+        <v>36.26051599365527</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>13.40355072062625</v>
+        <v>36.26051596540321</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>37.06840390844931</v>
+        <v>36.26051601163626</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>43.60823841730982</v>
+        <v>36.26051602744344</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>25.95873956284138</v>
+        <v>36.26051597821281</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>47.01717595175893</v>
+        <v>36.26051601941972</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>52.83721304551109</v>
+        <v>36.26051603350845</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>54.3462726518497</v>
+        <v>36.26051603567033</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>62.51174849177917</v>
+        <v>36.26051605520364</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>67.3238212714831</v>
+        <v>36.26051606220715</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>33.03519513312558</v>
+        <v>36.26051600239449</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>60.01036712452871</v>
+        <v>36.26051605418142</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>66.93683629563432</v>
+        <v>36.2605160698075</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>13.71882190533676</v>
+        <v>36.26051582868227</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>31.12518472224752</v>
+        <v>36.26051586389037</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>34.95568519127639</v>
+        <v>36.2605158747247</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>13.89618691216831</v>
+        <v>36.26051585331737</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>33.58347245038036</v>
+        <v>36.26051589318738</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>37.92247364387734</v>
+        <v>36.26051590545629</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>22.62269970226858</v>
+        <v>36.26051585879085</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>40.14055650678706</v>
+        <v>36.26051589432647</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>44.0017638148515</v>
+        <v>36.26051590526158</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>44.05738173756214</v>
+        <v>36.26051591348197</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>50.58348882672058</v>
+        <v>36.26051592984106</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>53.89227397363631</v>
+        <v>36.26051593584543</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>24.47488971777346</v>
+        <v>36.26051588649674</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>46.36451551106732</v>
+        <v>36.26051593080028</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>51.31178059493755</v>
+        <v>36.26051594320312</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>15.11926822914533</v>
+        <v>36.26051589012938</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>35.18323664567092</v>
+        <v>36.26051593009726</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>40.30704401186404</v>
+        <v>36.26051594316129</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>12.54633434025353</v>
+        <v>36.2605159161279</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>35.24360651563227</v>
+        <v>36.26051596138792</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>41.04605239955525</v>
+        <v>36.26051597618177</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>23.68391300141411</v>
+        <v>36.26051592708806</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>43.88052016494919</v>
+        <v>36.26051596742773</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>49.04404147748247</v>
+        <v>36.26051598061329</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>47.5686722065763</v>
+        <v>36.260515984643</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>55.48751678739813</v>
+        <v>36.26051600396908</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>59.56572813763302</v>
+        <v>36.26051601091149</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>27.3402246648679</v>
+        <v>36.26051595348164</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>53.34312332800476</v>
+        <v>36.26051600443459</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>59.43096833927574</v>
+        <v>36.26051601912744</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>22.94575617221439</v>
+        <v>36.2605159469548</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>44.11751146740706</v>
+        <v>36.26051598696915</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>49.29911944276574</v>
+        <v>36.26051599999852</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>21.68581155624167</v>
+        <v>36.26051597364211</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>45.63770991752873</v>
+        <v>36.26051601895477</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>51.50612600891175</v>
+        <v>36.26051603370935</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>34.52990424623646</v>
+        <v>36.2605159862558</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>55.84475570598588</v>
+        <v>36.26051602664239</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>61.06715373758011</v>
+        <v>36.26051603979295</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>62.33476465231028</v>
+        <v>36.26051604153004</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>70.61307312485727</v>
+        <v>36.26051606030228</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>74.89660094577492</v>
+        <v>36.26051606675188</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>40.76033036111471</v>
+        <v>36.26051600840134</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>68.0419852594778</v>
+        <v>36.26051605910801</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>74.28536718904174</v>
+        <v>36.26051607368893</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>0.09317958246173674</v>
+        <v>36.26051580213008</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>15.75044128144105</v>
+        <v>36.26051583544448</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>19.67317043913452</v>
+        <v>36.26051584623333</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>-1.032990846760747</v>
+        <v>36.26051582324079</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>16.67528879551066</v>
+        <v>36.26051586096635</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>21.11786337706286</v>
+        <v>36.26051587318376</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>6.491407832384059</v>
+        <v>36.26051582785117</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>22.24760137980266</v>
+        <v>36.26051586147547</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>26.20101036004734</v>
+        <v>36.26051587236469</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>26.40803306751357</v>
+        <v>36.26051588169128</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>32.32351104665837</v>
+        <v>36.26051589729234</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>35.74670145350706</v>
+        <v>36.26051590330878</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>8.718282470697904</v>
+        <v>36.26051585692619</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>28.57607543473069</v>
+        <v>36.26051589909489</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>33.58246581188538</v>
+        <v>36.26051591140781</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>1.872521970249444</v>
+        <v>36.26051586150014</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>20.04370224381547</v>
+        <v>36.26051589932801</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>25.44780246340812</v>
+        <v>36.26051591249515</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>-1.655271946704282</v>
+        <v>36.26051588408644</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>18.90020524017432</v>
+        <v>36.26051592692311</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>25.0193915016204</v>
+        <v>36.26051594183371</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>8.249684866032045</v>
+        <v>36.2605158941167</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>26.53974380652685</v>
+        <v>36.26051593229646</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>31.98520811106183</v>
+        <v>36.26051594558609</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>30.63554437103576</v>
+        <v>36.26051595082269</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>37.89411564875016</v>
+        <v>36.26051596925254</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>42.20378392036478</v>
+        <v>36.2605159763039</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>12.14594740632529</v>
+        <v>36.26051592189263</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>35.91259708784547</v>
+        <v>36.26051597037564</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>42.31994856725662</v>
+        <v>36.2605159851863</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>11.38760765875681</v>
+        <v>36.26051591991861</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>30.74097473306445</v>
+        <v>36.26051595786842</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>36.17933843681247</v>
+        <v>36.26051597107146</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>9.023653304017731</v>
+        <v>36.26051594342128</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>30.91808022950813</v>
+        <v>36.26051598639602</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>37.07640268493303</v>
+        <v>36.26051600134727</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>20.72576460313163</v>
+        <v>36.26051595516222</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>40.20913743296207</v>
+        <v>36.26051599346506</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>45.68957618085176</v>
+        <v>36.26051600679091</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>46.91802336778456</v>
+        <v>36.26051600970548</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>54.56812016832249</v>
+        <v>36.26051602766213</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>59.12353238778592</v>
+        <v>36.26051603423394</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>27.08151000638374</v>
+        <v>36.26051597867438</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>52.19939317220994</v>
+        <v>36.26051602702113</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>58.73383723136645</v>
+        <v>36.26051604178809</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>5.252964018643972</v>
+        <v>36.2605158104892</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>21.91636787590872</v>
+        <v>36.26051584530774</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>25.62156630620565</v>
+        <v>36.26051585588771</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>4.368104129759981</v>
+        <v>36.26051583266643</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>23.21475782258697</v>
+        <v>36.2605158720953</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>27.41109504274333</v>
+        <v>36.26051588407616</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>12.37006967433982</v>
+        <v>36.26051583756016</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>29.13950941926471</v>
+        <v>36.26051587270261</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>32.87367367964883</v>
+        <v>36.260515883381</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>33.10742648606156</v>
+        <v>36.26051589211514</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>39.40854831342382</v>
+        <v>36.26051590819594</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>42.67801075661765</v>
+        <v>36.2605159140699</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>14.31638371158904</v>
+        <v>36.26051586573336</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>35.3687352801362</v>
+        <v>36.26051590962037</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>40.10989578098783</v>
+        <v>36.26051592169386</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>8.377267380226339</v>
+        <v>36.26051587176481</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>27.64956162131431</v>
+        <v>36.26051591129039</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>32.72343275643581</v>
+        <v>36.26051592413114</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>5.018284941652087</v>
+        <v>36.26051589535117</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>26.81969119575676</v>
+        <v>36.26051594011034</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>32.56492131773142</v>
+        <v>36.26051595465134</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>15.54585179674436</v>
+        <v>36.26051590576171</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>34.94484790751129</v>
+        <v>36.26051594565497</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>40.05739744067876</v>
+        <v>36.26051595861517</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>38.87867290855957</v>
+        <v>36.26051596325708</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>46.55010888590313</v>
+        <v>36.26051598224107</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>50.63970561412761</v>
+        <v>36.2605159891113</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>19.33947087796431</v>
+        <v>36.26051593261379</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>44.43057411806004</v>
+        <v>36.26051598305244</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>50.43483896325201</v>
+        <v>36.26051599748798</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>17.22447183917949</v>
+        <v>36.26051592974142</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>37.66427890484344</v>
+        <v>36.26051596934827</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>42.77521346417156</v>
+        <v>36.26051598216476</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>15.05874927261958</v>
+        <v>36.26051595418684</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>38.18241646103964</v>
+        <v>36.26051599903804</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>43.96996380814226</v>
+        <v>36.26051601355157</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>27.38621773114687</v>
+        <v>36.26051596630551</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>47.96369531863238</v>
+        <v>36.2605160062808</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>53.11406168809636</v>
+        <v>36.26051601921652</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>54.55726564151485</v>
+        <v>36.26051602165257</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>62.62711998405982</v>
+        <v>36.26051604015859</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>66.94196613676617</v>
+        <v>36.2605160465358</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>33.66274220154866</v>
+        <v>36.26051598898871</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>60.10257828610007</v>
+        <v>36.26051603924372</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>66.23726127472318</v>
+        <v>36.26051605358031</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>-0.5711180878137867</v>
+        <v>36.26051579824326</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>15.40743803646411</v>
+        <v>36.26051583235724</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>19.20384861504218</v>
+        <v>36.2605158431106</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>-1.99911340666678</v>
+        <v>36.26051581970467</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>16.07199093230576</v>
+        <v>36.26051585833568</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>20.37175131382885</v>
+        <v>36.2605158705129</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>5.75988481307855</v>
+        <v>36.26051582425347</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>21.8390075771611</v>
+        <v>36.26051585868479</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>25.66521404737123</v>
+        <v>36.26051586953819</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>26.03621863867047</v>
+        <v>36.26051587922139</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>32.06848193104499</v>
+        <v>36.26051589507997</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>35.41564083147126</v>
+        <v>36.26051590110369</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>8.031506728374829</v>
+        <v>36.26051585385255</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>28.26434277270582</v>
+        <v>36.26051589694288</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>33.1188016808524</v>
+        <v>36.26051590923177</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>0.592960683019335</v>
+        <v>36.26051585804768</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>19.12917083455257</v>
+        <v>36.26051589680181</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>24.34275360013543</v>
+        <v>36.26051590986687</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>-3.424589319277054</v>
+        <v>36.26051588097997</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>17.54324313052452</v>
+        <v>36.26051592486554</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>23.44690131639006</v>
+        <v>36.26051593966054</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>6.752587621860453</v>
+        <v>36.26051589100579</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>25.40962097211862</v>
+        <v>36.26051593012043</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>30.66315233823114</v>
+        <v>36.26051594330703</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>29.56277438921241</v>
+        <v>36.26051594893814</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>36.95220154542685</v>
+        <v>36.26051596766863</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>41.14840706188826</v>
+        <v>36.26051597469753</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>10.80053972944762</v>
+        <v>36.26051591931749</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>35.01241051676876</v>
+        <v>36.26051596887921</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>41.17996572942503</v>
+        <v>36.26051598358618</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>10.71832439241575</v>
+        <v>36.26051591771157</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>30.47972035224492</v>
+        <v>36.26051595659412</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>35.69375759728016</v>
+        <v>36.26051596962682</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>7.902648446019768</v>
+        <v>36.26051594163571</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>30.25816617598306</v>
+        <v>36.2605159856667</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>36.16262265537237</v>
+        <v>36.26051600042507</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>19.94023412319473</v>
+        <v>36.26051595346981</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>39.83390397801936</v>
+        <v>36.26051599271407</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>45.08831786549734</v>
+        <v>36.26051600586801</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>46.56334109028827</v>
+        <v>36.26051600929173</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>54.34538995286165</v>
+        <v>36.26051602754602</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>58.75346477257705</v>
+        <v>36.26051603406001</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>26.36680094900545</v>
+        <v>36.26051597753511</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>51.97584651978612</v>
+        <v>36.26051602696452</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>58.23286578576739</v>
+        <v>36.26051604155437</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-4.511825786056015</v>
+        <v>36.2605157953966</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>10.56240169431808</v>
+        <v>36.260515828066</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>14.15359376764743</v>
+        <v>36.26051583831704</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-6.376538084259444</v>
+        <v>36.26051581522353</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>10.67162063394495</v>
+        <v>36.2605158522187</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>14.73860811621738</v>
+        <v>36.26051586382708</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>0.754472391614371</v>
+        <v>36.260515819262</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>15.92316661006894</v>
+        <v>36.26051585223532</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>19.54225369864334</v>
+        <v>36.26051586258172</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>20.09582568637145</v>
+        <v>36.26051587220196</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>25.79580736763175</v>
+        <v>36.26051588738194</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>29.01340042451505</v>
+        <v>36.26051589314202</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>3.18402135271764</v>
+        <v>36.26051584807777</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>22.28278759800125</v>
+        <v>36.26051588934136</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>26.8715484697666</v>
+        <v>36.2605159010481</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-2.785981255300001</v>
+        <v>36.26051585305574</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>14.73783972613762</v>
+        <v>36.260515890188</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>19.7173099052191</v>
+        <v>36.2605159026692</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-7.064073302011508</v>
+        <v>36.26051587431844</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>12.75839187413758</v>
+        <v>36.26051591636738</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>18.39661872992133</v>
+        <v>36.26051593050123</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>2.422686810431095</v>
+        <v>36.26051588361668</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>20.0603378704628</v>
+        <v>36.26051592109435</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>25.07769449943158</v>
+        <v>36.26051593369166</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>24.23990210327185</v>
+        <v>36.26051593942218</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>31.24164858547955</v>
+        <v>36.26051595736298</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>35.29228186681789</v>
+        <v>36.26051596410355</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>6.559246815744213</v>
+        <v>36.26051591117132</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.47092332572802</v>
+        <v>36.26051595865516</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>35.35924617428841</v>
+        <v>36.26051597270251</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>7.425461599406976</v>
+        <v>36.26051591073861</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>26.14344103384785</v>
+        <v>36.26051594799783</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>31.11862503842127</v>
+        <v>36.26051596045977</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>4.258542301893904</v>
+        <v>36.26051593301007</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>25.4335297826403</v>
+        <v>36.26051597520278</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>31.06713852041592</v>
+        <v>36.26051598931481</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>15.58293559911607</v>
+        <v>36.26051594406632</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>34.42587027546149</v>
+        <v>36.26051598167214</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>39.43927581550237</v>
+        <v>36.26051599425</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>41.03285090480219</v>
+        <v>36.26051599789075</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>48.42942127461927</v>
+        <v>36.26051601539856</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>52.68425555466335</v>
+        <v>36.26051602164788</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>21.95815116862957</v>
+        <v>36.2605159675615</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>46.23267822813338</v>
+        <v>36.26051601492846</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>52.2023655991117</v>
+        <v>36.26051602888164</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>4.965996966035089</v>
+        <v>36.26051580717056</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>21.77409149931275</v>
+        <v>36.26051584304858</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>26.19060705712097</v>
+        <v>36.26051585479677</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>4.102609175447924</v>
+        <v>36.26051583159221</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>23.11195572376182</v>
+        <v>36.26051587222084</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>28.11360405225788</v>
+        <v>36.26051588552461</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>12.55795601222858</v>
+        <v>36.26051583698542</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>29.47116196171296</v>
+        <v>36.26051587319719</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>33.92236963145804</v>
+        <v>36.26051588505467</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>34.26771016047334</v>
+        <v>36.26051589505542</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>40.48523272960052</v>
+        <v>36.2605159120779</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>44.33384790603819</v>
+        <v>36.26051591873979</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>15.36646288564049</v>
+        <v>36.26051586858133</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>36.5510627538975</v>
+        <v>36.26051591384446</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>42.18503554897589</v>
+        <v>36.26051592728971</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>6.679151414603922</v>
+        <v>36.26051587427431</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>26.2567151097643</v>
+        <v>36.26051591510238</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>32.21774067364855</v>
+        <v>36.260515929406</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>3.09094178075738</v>
+        <v>36.26051590033788</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>25.23686083482663</v>
+        <v>36.26051594657199</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>31.98656143050503</v>
+        <v>36.26051596276956</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>13.91374926865049</v>
+        <v>36.26051591145424</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>33.61840901842509</v>
+        <v>36.2605159526621</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>39.62515504667886</v>
+        <v>36.26051596709878</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>38.17829287626852</v>
+        <v>36.26051597229117</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>45.84181086061271</v>
+        <v>36.26051599250685</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>50.58355250943702</v>
+        <v>36.26051600021911</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>18.38452907116849</v>
+        <v>36.26051594134062</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>43.85584734027073</v>
+        <v>36.26051599356696</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>50.8995302806882</v>
+        <v>36.26051600963903</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>16.08167685822204</v>
+        <v>36.26051593623681</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>36.93445371038557</v>
+        <v>36.26051597716329</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>42.87514692874236</v>
+        <v>36.26051599146521</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>13.75199745913806</v>
+        <v>36.26051596294236</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>37.34203842336866</v>
+        <v>36.26051600928792</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>44.06925153151295</v>
+        <v>36.26051602548356</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>26.47808655198789</v>
+        <v>36.2605159759929</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>47.46982335163013</v>
+        <v>36.2605160173001</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>53.45668055515344</v>
+        <v>36.26051603173506</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>54.91601146014766</v>
+        <v>36.2605160343436</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>63.0398610150428</v>
+        <v>36.26051605396596</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>67.96233048961363</v>
+        <v>36.26051606113395</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>33.61325019375952</v>
+        <v>36.26051600112359</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>60.5367973740493</v>
+        <v>36.26051605311731</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>67.66384827745219</v>
+        <v>36.2605160691239</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>6.191569950153536</v>
+        <v>36.2605158090168</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>22.51330096089053</v>
+        <v>36.26051584330827</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>26.34309478946516</v>
+        <v>36.26051585407376</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>5.484114286541232</v>
+        <v>36.26051583098936</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>23.94426688799421</v>
+        <v>36.26051586982136</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>28.28175169702775</v>
+        <v>36.26051588201231</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>13.39797778398846</v>
+        <v>36.26051583592338</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>29.8234843705998</v>
+        <v>36.26051587053384</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>33.68328096151322</v>
+        <v>36.26051588139947</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>33.74105264141809</v>
+        <v>36.26051589029066</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>39.90695613749827</v>
+        <v>36.26051590620504</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>43.25505253526761</v>
+        <v>36.26051591216952</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>15.30508068114209</v>
+        <v>36.26051586447026</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>35.97337784358229</v>
+        <v>36.26051590781543</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>40.87708333745869</v>
+        <v>36.2605159200936</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>7.064408765182105</v>
+        <v>36.2605158678864</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>25.91229522901633</v>
+        <v>36.26051590673686</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>31.15842719291417</v>
+        <v>36.26051591982586</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>3.794036175240112</v>
+        <v>36.26051589112976</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>25.11526943501358</v>
+        <v>36.26051593512442</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>31.05567955470552</v>
+        <v>36.26051594994652</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>14.10921368963102</v>
+        <v>36.2605159015181</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>33.08089610020711</v>
+        <v>36.26051594072997</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>38.36716073678646</v>
+        <v>36.26051595394072</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>37.00176354970199</v>
+        <v>36.26051595878432</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>44.50527140278832</v>
+        <v>36.26051597754417</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>48.70399534398499</v>
+        <v>36.26051598453435</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>17.85156188553252</v>
+        <v>36.26051592880475</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>42.45166777972359</v>
+        <v>36.2605159785152</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>48.68025044149319</v>
+        <v>36.26051599322925</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>15.90345959939185</v>
+        <v>36.26051592593587</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>35.92312101166563</v>
+        <v>36.26051596487444</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>41.20606909194375</v>
+        <v>36.26051597795978</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>13.79029969240235</v>
+        <v>36.26051595006595</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>36.43873062118131</v>
+        <v>36.26051599416039</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>42.42113094019201</v>
+        <v>36.26051600897836</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>25.89004113437816</v>
+        <v>36.2605159621548</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>46.04458308766399</v>
+        <v>36.26051600145559</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>51.36837494671236</v>
+        <v>36.26051601466266</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>52.62299802134611</v>
+        <v>36.26051601728712</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>60.52163486060371</v>
+        <v>36.26051603556279</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>64.96018707398815</v>
+        <v>36.26051604205983</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>32.13051830056286</v>
+        <v>36.26051598524874</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>58.07265755790103</v>
+        <v>36.26051603478352</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>64.42864374140078</v>
+        <v>36.26051604941305</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>10.67432144492532</v>
+        <v>36.26051581962667</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>28.24888033127612</v>
+        <v>36.26051585624752</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>32.62501922060068</v>
+        <v>36.260515867986</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>10.46472298818296</v>
+        <v>36.26051584527917</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>30.3417163629452</v>
+        <v>36.26051588674898</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>35.29783146973108</v>
+        <v>36.26051590004177</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>19.29069867075797</v>
+        <v>36.26051585103556</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>36.97632772575979</v>
+        <v>36.26051588799707</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>41.38699022588829</v>
+        <v>36.26051589984475</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>41.52919480919665</v>
+        <v>36.26051590902308</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>48.03550725308408</v>
+        <v>36.26051592632552</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>51.8287384402639</v>
+        <v>36.26051593292891</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>21.78130811201946</v>
+        <v>36.26051588155355</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>43.88065944577491</v>
+        <v>36.26051592767634</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>49.48023135934231</v>
+        <v>36.26051594111104</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>12.54698820906627</v>
+        <v>36.26051588716709</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>32.92306292610215</v>
+        <v>36.26051592878385</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>38.79372097238807</v>
+        <v>36.26051594304214</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>9.539701525121082</v>
+        <v>36.26051591432901</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>32.58959487172891</v>
+        <v>36.26051596145625</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>39.23706107953493</v>
+        <v>36.26051597760248</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>20.76898446543596</v>
+        <v>36.26051592584122</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>41.27839608991039</v>
+        <v>36.26051596784512</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>47.19414381442657</v>
+        <v>36.26051598223605</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>45.56826665719483</v>
+        <v>36.26051598656663</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>53.53396571708872</v>
+        <v>36.26051600709572</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>58.19285806250242</v>
+        <v>36.26051601473988</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>24.9993211411087</v>
+        <v>36.26051595465183</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>51.4322119487084</v>
+        <v>36.26051600779906</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>58.37776465518691</v>
+        <v>36.26051602381245</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>20.93782661200323</v>
+        <v>36.26051594789732</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>42.53099057378245</v>
+        <v>36.26051598957486</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>48.41129401304003</v>
+        <v>36.26051600381486</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>19.2186924658836</v>
+        <v>36.26051597560375</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>43.64686192445923</v>
+        <v>36.2605160227998</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>50.30584859153443</v>
+        <v>36.26051603892533</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>32.29185959826298</v>
+        <v>36.26051598898154</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>54.02975768483762</v>
+        <v>36.26051603104677</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>59.95588480181392</v>
+        <v>36.26051604541925</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>61.29944399932063</v>
+        <v>36.26051604719947</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>69.71052993578596</v>
+        <v>36.26051606711182</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>74.55551773218843</v>
+        <v>36.26051607421599</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>39.27139437137394</v>
+        <v>36.26051601309514</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>67.0978367577865</v>
+        <v>36.26051606596666</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>74.16013766945379</v>
+        <v>36.2605160818999</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>7.961174517332402</v>
+        <v>36.26051581896265</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>24.72202779323494</v>
+        <v>36.26051585382358</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>29.06651944161855</v>
+        <v>36.26051586513395</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>7.407280617074406</v>
+        <v>36.26051584329497</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>26.36335871002498</v>
+        <v>36.26051588277184</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>31.28328687840064</v>
+        <v>36.26051589557981</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>15.79204911857924</v>
+        <v>36.26051584856695</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>32.65784852571849</v>
+        <v>36.26051588375218</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>37.03637009551709</v>
+        <v>36.26051589516775</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>37.31178083050771</v>
+        <v>36.26051590438561</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>43.4861673877086</v>
+        <v>36.26051592094196</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>47.28178791343866</v>
+        <v>36.2605159273579</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>18.4462798783755</v>
+        <v>36.26051587851138</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>39.5286507083285</v>
+        <v>36.26051592242353</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>45.07568149791558</v>
+        <v>36.26051593537947</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>10.42661244035942</v>
+        <v>36.26051588499019</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>29.9394404778776</v>
+        <v>36.26051592464753</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>35.79452623200786</v>
+        <v>36.26051593842307</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>7.213701244568544</v>
+        <v>36.26051591087191</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>29.286526230237</v>
+        <v>36.26051595578028</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>35.91609931604976</v>
+        <v>36.26051597137985</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>17.94510159569458</v>
+        <v>36.26051592165246</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>37.58470807044986</v>
+        <v>36.26051596167871</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>43.48457504567383</v>
+        <v>36.26051597558239</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>41.97466773241504</v>
+        <v>36.26051598001175</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>49.5744366907091</v>
+        <v>36.2605159996852</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>54.24049205381979</v>
+        <v>36.26051600711588</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>22.22353739631129</v>
+        <v>36.26051594982877</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>47.55807890944332</v>
+        <v>36.26051600049378</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>54.47295338167217</v>
+        <v>36.26051601597057</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>19.13658103758104</v>
+        <v>36.26051594385802</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>39.88722176069547</v>
+        <v>36.26051598357965</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>45.73043280350819</v>
+        <v>36.26051599734798</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>17.14186157388026</v>
+        <v>36.26051597023446</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>40.61641711508305</v>
+        <v>36.26051601521563</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>47.23311732760817</v>
+        <v>36.26051603080703</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>29.73447704771085</v>
+        <v>36.26051598286748</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>50.62343036394847</v>
+        <v>36.26051602295861</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>56.51194802420569</v>
+        <v>36.26051603685502</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>57.89072753989442</v>
+        <v>36.26051603881348</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>65.95376524729556</v>
+        <v>36.26051605789588</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>70.79211455758353</v>
+        <v>36.26051606480033</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>36.67022284488501</v>
+        <v>36.2605160064825</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>63.42036394742055</v>
+        <v>36.260516056884</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>70.42786685906421</v>
+        <v>36.26051607229984</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>6.825874667840438</v>
+        <v>36.26051581131973</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>24.29370505569407</v>
+        <v>36.26051584770728</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>28.44262776217446</v>
+        <v>36.26051585910562</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>6.285815015923646</v>
+        <v>36.26051583549769</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>26.04246671816834</v>
+        <v>36.26051587670334</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>30.74146026786253</v>
+        <v>36.26051588961093</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>14.85264737300226</v>
+        <v>36.26051584102488</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>32.43164949592521</v>
+        <v>36.26051587775093</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>36.61324714930944</v>
+        <v>36.2605158892553</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>36.75028739948325</v>
+        <v>36.26051589840909</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>43.32133940512553</v>
+        <v>36.26051591536709</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>46.89661036683972</v>
+        <v>36.26051592170742</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>17.02074235919379</v>
+        <v>36.26051587093731</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>39.09911203856392</v>
+        <v>36.26051591687744</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>44.40348122235329</v>
+        <v>36.26051592989934</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>7.953378553871367</v>
+        <v>36.26051587480229</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>28.11954705192895</v>
+        <v>36.26051591605432</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>33.74873511895095</v>
+        <v>36.26051592988951</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>4.69303962380193</v>
+        <v>36.26051590034124</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>27.50581459991262</v>
+        <v>36.26051594705546</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>33.88002243817488</v>
+        <v>36.26051596272256</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>15.74342820400624</v>
+        <v>36.26051591160395</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>36.04220675696736</v>
+        <v>36.26051595323973</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>41.71461149339191</v>
+        <v>36.26051596720361</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>40.2761830802635</v>
+        <v>36.26051597194295</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>48.26937966971916</v>
+        <v>36.26051599196526</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>52.71313266439666</v>
+        <v>36.26051599936449</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>19.78604416512928</v>
+        <v>36.26051594008356</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>46.05031003783289</v>
+        <v>36.26051599282108</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>52.72414306608675</v>
+        <v>36.2605160083833</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>16.63232240533999</v>
+        <v>36.26051593553535</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>38.00413393739298</v>
+        <v>36.26051597686204</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>43.68152450049807</v>
+        <v>36.26051599071393</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>14.62382816017975</v>
+        <v>36.26051596184081</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>38.80203207674025</v>
+        <v>36.26051600863958</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>45.23126284489459</v>
+        <v>36.26051602432561</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>27.50297761382663</v>
+        <v>36.26051597488129</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>49.01879483261317</v>
+        <v>36.26051601659243</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>54.74030929581915</v>
+        <v>36.26051603057318</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>56.12831065986438</v>
+        <v>36.26051603285431</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>64.54307499443117</v>
+        <v>36.26051605233448</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>69.24138245679742</v>
+        <v>36.26051605922085</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>34.25088013787964</v>
+        <v>36.26051599884471</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>61.90134438037225</v>
+        <v>36.2605160513624</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>68.72201436223696</v>
+        <v>36.26051606686104</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>3.143201853361788</v>
+        <v>36.26051580900274</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>18.9409824275994</v>
+        <v>36.26051584256243</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>23.08183678787746</v>
+        <v>36.26051585362163</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>2.222256332894705</v>
+        <v>36.26051583144922</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>20.08916280148586</v>
+        <v>36.26051586945255</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>24.77861350485552</v>
+        <v>36.26051588197609</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>10.04560002713721</v>
+        <v>36.26051583622104</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>25.94242037649205</v>
+        <v>36.26051587009292</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>30.1156922432273</v>
+        <v>36.26051588125499</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>30.41105119894396</v>
+        <v>36.26051589065787</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>36.23422496472921</v>
+        <v>36.26051590658929</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>39.89426055133146</v>
+        <v>36.26051591287935</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>12.5883963764855</v>
+        <v>36.26051586588859</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>32.49885943351686</v>
+        <v>36.26051590825646</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>37.79387914427296</v>
+        <v>36.26051592092257</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>5.920995727346011</v>
+        <v>36.26051587283349</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>24.37241193382236</v>
+        <v>36.26051591107156</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>30.00317232026568</v>
+        <v>36.26051592457191</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>2.557200822882688</v>
+        <v>36.26051589699743</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>23.42945450089157</v>
+        <v>36.26051594029862</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>29.8051914402681</v>
+        <v>36.26051595558655</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>12.68252759037942</v>
+        <v>36.26051590721942</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>31.25405443598821</v>
+        <v>36.2605159458132</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>36.92792466699122</v>
+        <v>36.26051595943913</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>35.50862561271832</v>
+        <v>36.26051596434888</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>42.71786273578996</v>
+        <v>36.26051598328479</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>47.24934652400019</v>
+        <v>36.26051599058197</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>16.78012186047059</v>
+        <v>36.26051593532282</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>40.79323012098376</v>
+        <v>36.26051598426697</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>47.46482323363857</v>
+        <v>36.26051599945634</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>14.84674714192524</v>
+        <v>36.26051593146071</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>34.49374871981581</v>
+        <v>36.26051596982028</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>40.13329359254772</v>
+        <v>36.26051598332547</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>12.65237240418892</v>
+        <v>36.26051595626385</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>34.87862785256532</v>
+        <v>36.26051599970261</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>41.26476960188168</v>
+        <v>36.26051601499603</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>24.57174116150444</v>
+        <v>36.26051596828886</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>44.35002925905904</v>
+        <v>36.26051600700526</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>50.0333004574095</v>
+        <v>36.26051602063609</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>51.30952176268821</v>
+        <v>36.26051602305763</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>58.93434212957067</v>
+        <v>36.26051604146304</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>63.66149788110329</v>
+        <v>36.26051604824394</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>31.18149809608309</v>
+        <v>36.26051599187601</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>56.55421072168198</v>
+        <v>36.26051604064053</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>63.33925084687477</v>
+        <v>36.26051605577427</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>6.438053433675417</v>
+        <v>36.26051581684867</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>23.01658154560864</v>
+        <v>36.26051585143098</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>27.39233946431185</v>
+        <v>36.2605158627689</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>5.764483688313994</v>
+        <v>36.26051584089419</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>24.51426565564985</v>
+        <v>36.26051588005554</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>29.46957833226181</v>
+        <v>36.26051589289472</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>14.05276506447657</v>
+        <v>36.2605158460992</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>30.73495193700571</v>
+        <v>36.26051588100321</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>35.14497787874454</v>
+        <v>36.2605158924466</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>35.45863516238834</v>
+        <v>36.26051590179348</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>41.5666158451296</v>
+        <v>36.26051591826316</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>45.39105401705037</v>
+        <v>36.26051592470031</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>16.81742113611932</v>
+        <v>36.26051587622646</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>37.6860180288518</v>
+        <v>36.26051591982194</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>43.26774598318357</v>
+        <v>36.26051593280457</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>8.783979632753152</v>
+        <v>36.26051588254005</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>28.10608270750836</v>
+        <v>36.26051592188789</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>34.01370698555159</v>
+        <v>36.2605159357152</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>5.465447941287167</v>
+        <v>36.26051590816223</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>27.32245871340361</v>
+        <v>36.26051595272011</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>34.01152180737458</v>
+        <v>36.26051596837831</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>16.08461837115593</v>
+        <v>36.26051591885569</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>35.53215482466504</v>
+        <v>36.26051595856956</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>41.48498038251093</v>
+        <v>36.2605159725255</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>39.98690732610426</v>
+        <v>36.2605159770855</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>47.51909774870394</v>
+        <v>36.26051599666022</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>52.22645834466782</v>
+        <v>36.26051600411889</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>20.44378613629408</v>
+        <v>36.26051594722301</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>45.55246704745439</v>
+        <v>36.26051599753287</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>52.52893009987005</v>
+        <v>36.26051601306459</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>17.66432147970053</v>
+        <v>36.26051594150188</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>38.22860373594265</v>
+        <v>36.26051598092354</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>44.12178615720418</v>
+        <v>36.26051599474586</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>15.56245792442628</v>
+        <v>36.26051596763787</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>38.82614543659501</v>
+        <v>36.26051601227937</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>45.49942676942163</v>
+        <v>36.26051602793189</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>28.04795641952052</v>
+        <v>36.26051598018898</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>48.74923235196479</v>
+        <v>36.26051601997736</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>54.68812261120412</v>
+        <v>36.26051603392825</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>56.06886191120386</v>
+        <v>36.2605160360082</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>64.061806231936</v>
+        <v>36.26051605499231</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>68.94063524336859</v>
+        <v>36.26051606192368</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>35.05044666126943</v>
+        <v>36.26051600397997</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>61.57581790416042</v>
+        <v>36.26051605403584</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>68.64344176204992</v>
+        <v>36.26051606950897</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>10.80040665635858</v>
+        <v>36.26051581970425</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>27.42857660268483</v>
+        <v>36.26051585453295</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>31.45321571481319</v>
+        <v>36.26051586555639</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>10.64971447078897</v>
+        <v>36.26051584406361</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>29.45565180624215</v>
+        <v>36.26051588350398</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>34.01399924081826</v>
+        <v>36.26051589598704</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>19.03253019574344</v>
+        <v>36.26051584924937</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>35.76537566897893</v>
+        <v>36.26051588440205</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>39.8219375966756</v>
+        <v>36.26051589552804</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>39.99822400986668</v>
+        <v>36.26051590459885</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>46.14877778536892</v>
+        <v>36.26051592093677</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>49.63430185293483</v>
+        <v>36.26051592713856</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>21.11920143201179</v>
+        <v>36.26051587841454</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>42.03588400144307</v>
+        <v>36.26051592226579</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>47.22220614960538</v>
+        <v>36.26051593492679</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>12.52443620418331</v>
+        <v>36.26051588339955</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>31.80214049733669</v>
+        <v>36.26051592302669</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>37.21026949347149</v>
+        <v>36.26051593636456</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>9.691578144821509</v>
+        <v>36.26051590922092</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>31.49831395224943</v>
+        <v>36.2605159540951</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>37.62234465759036</v>
+        <v>36.26051596919903</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>20.41809973969491</v>
+        <v>36.26051591992129</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>39.82148678492844</v>
+        <v>36.26051595991706</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>45.27130637568501</v>
+        <v>36.260515973379</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>43.80033549528483</v>
+        <v>36.26051597800185</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>51.31979274716007</v>
+        <v>36.26051599736131</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>55.60546108120683</v>
+        <v>36.26051600452455</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>24.13822690863446</v>
+        <v>36.260515947537</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>49.15273384216459</v>
+        <v>36.2605159981083</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>55.56463895505428</v>
+        <v>36.26051601313623</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>20.95999655437649</v>
+        <v>36.26051594170759</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>41.43100080172238</v>
+        <v>36.26051598140064</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>46.85177901385457</v>
+        <v>36.26051599473481</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>19.34091106694052</v>
+        <v>36.26051596813758</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>42.49913453967536</v>
+        <v>36.2605160130864</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>48.63797816704979</v>
+        <v>36.26051602818615</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>31.84881016787849</v>
+        <v>36.26051598060452</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>52.45671351173007</v>
+        <v>36.26051602066682</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>57.91984654838452</v>
+        <v>36.26051603412503</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>59.18535126189173</v>
+        <v>36.26051603632958</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>67.11495049946288</v>
+        <v>36.26051605513229</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>71.59025065743197</v>
+        <v>36.26051606179109</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>38.10631450143824</v>
+        <v>36.26051600379579</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>64.49363009932355</v>
+        <v>36.26051605412805</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>71.01262249507069</v>
+        <v>36.26051606908021</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>7.634849198323248</v>
+        <v>36.2605158142394</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>25.12789060210009</v>
+        <v>36.26051585053055</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>29.27615908255086</v>
+        <v>36.26051586193663</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>7.271069369576324</v>
+        <v>36.26051583862527</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>27.05634596940467</v>
+        <v>36.26051587972173</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>31.75461268168828</v>
+        <v>36.2605158926381</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>15.85349770468009</v>
+        <v>36.26051584419927</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>33.4579633458275</v>
+        <v>36.26051588082801</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>37.63892425765021</v>
+        <v>36.26051589234021</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>37.75453040139836</v>
+        <v>36.26051590142345</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>44.31348192249427</v>
+        <v>36.26051591837455</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>47.90316557030459</v>
+        <v>36.26051592471674</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>17.99626011114795</v>
+        <v>36.26051587400723</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>40.08657917180751</v>
+        <v>36.2605159198196</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>45.39623230798247</v>
+        <v>36.26051593285001</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>8.787763945375104</v>
+        <v>36.26051587788928</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>28.96874657331782</v>
+        <v>36.26051591903359</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>34.60043991804815</v>
+        <v>36.26051593288009</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>5.684781982431147</v>
+        <v>36.2605159036033</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>28.51440077692884</v>
+        <v>36.26051595019554</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>34.89145296414447</v>
+        <v>36.26051596587546</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>16.72195037013879</v>
+        <v>36.26051591489342</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>37.03571165490949</v>
+        <v>36.26051595642048</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>42.71065815301212</v>
+        <v>36.26051597039579</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>41.22015614995495</v>
+        <v>36.26051597503776</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>49.19284065418069</v>
+        <v>36.26051599506315</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>53.65141070858471</v>
+        <v>36.26051600245525</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>20.70431407538935</v>
+        <v>36.26051594326012</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>46.96564995714476</v>
+        <v>36.26051599586437</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>53.64117049316776</v>
+        <v>36.26051601142933</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>17.20363966195395</v>
+        <v>36.26051593817679</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>38.56704355602712</v>
+        <v>36.26051597938756</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>44.26123576575382</v>
+        <v>36.26051599325273</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>15.33728377696263</v>
+        <v>36.26051596461993</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>39.50601627639152</v>
+        <v>36.26051601128742</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>45.95430385008659</v>
+        <v>36.26051602698849</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>28.18308425502154</v>
+        <v>36.26051597767147</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>49.69045410551352</v>
+        <v>36.26051601926559</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>55.42894569787134</v>
+        <v>36.26051603325975</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>56.76040760341429</v>
+        <v>36.26051603542963</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>65.14551620216795</v>
+        <v>36.26051605489928</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>69.85420809475403</v>
+        <v>36.26051606178276</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>34.8724557770746</v>
+        <v>36.26051600151212</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>62.48970943124709</v>
+        <v>36.26051605388137</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>69.33553393211379</v>
+        <v>36.26051606938962</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_3/out_of_sample/ligand/LOO_XPhos/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_3/out_of_sample/ligand/LOO_XPhos/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.144</v>
+        <v>0.461</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>29.232</v>
+        <v>19.263</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.843</v>
+        <v>-0.897</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.795</v>
+        <v>24.137</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.002</v>
+        <v>0.748</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.594</v>
+        <v>14.347</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>36.26051581113838</v>
+        <v>-0.8814998859060843</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>36.26051584661119</v>
+        <v>22.93309260170567</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>36.26051585827425</v>
+        <v>28.69573227454901</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>36.26051583549572</v>
+        <v>1.674534655424115</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>36.2605158756655</v>
+        <v>22.38133556497236</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>36.26051588887287</v>
+        <v>27.26141589367079</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>36.26051584083766</v>
+        <v>11.39060471256318</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>36.26051587664045</v>
+        <v>30.09276110412405</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>36.26051588841201</v>
+        <v>35.15746852936974</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>36.26051589809646</v>
+        <v>35.76271161662736</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>36.260515914981</v>
+        <v>41.82418496438325</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>36.26051592158997</v>
+        <v>46.34397701614726</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>36.26051587188944</v>
+        <v>10.88092748838507</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>36.26051591663034</v>
+        <v>33.85141729269876</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>36.26051592997749</v>
+        <v>41.232164489056</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>36.26051587863656</v>
+        <v>4.126013278035149</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>36.26051591901837</v>
+        <v>32.98369190211206</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>36.26051593324414</v>
+        <v>42.31286222125291</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>36.2605159046601</v>
+        <v>2.907607668353513</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>36.26051595038888</v>
+        <v>27.4124582198761</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>36.26051596649827</v>
+        <v>36.01271315518316</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>36.26051591568642</v>
+        <v>16.43257530929775</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>36.26051595644388</v>
+        <v>39.88127317514252</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>36.26051597080198</v>
+        <v>48.16338699191015</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>36.2605159756214</v>
+        <v>43.44742445593997</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>36.26051599568846</v>
+        <v>51.19853056980833</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>36.26051600334722</v>
+        <v>57.86835726422864</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>36.26051594497293</v>
+        <v>16.94231503853192</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>36.26051599662593</v>
+        <v>50.02567691452317</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>36.26051601260262</v>
+        <v>58.35017196051163</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>36.26051593959045</v>
+        <v>9.527580188070043</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>36.26051598006752</v>
+        <v>41.88542241783611</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>36.26051599428745</v>
+        <v>51.62207626314023</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>36.26051596619921</v>
+        <v>10.36860960087663</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>36.26051601203586</v>
+        <v>39.02451400921591</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>36.26051602813865</v>
+        <v>47.92901778494098</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>36.26051597912734</v>
+        <v>28.61754281000418</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>36.26051601998094</v>
+        <v>55.34952617194644</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>36.26051603433315</v>
+        <v>64.11451401353378</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>36.26051603657717</v>
+        <v>66.10276385801924</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>36.26051605604592</v>
+        <v>73.35621913476538</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>36.26051606316588</v>
+        <v>81.31531610199252</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>36.26051600369311</v>
+        <v>32.39052763458191</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>36.26051605510964</v>
+        <v>68.91049575776476</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>36.2605160710215</v>
+        <v>78.33927336053988</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>36.26051581208409</v>
+        <v>6.634888904639219</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>36.2605158482362</v>
+        <v>33.39196904562392</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>36.26051585938148</v>
+        <v>37.66851006316501</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>36.26051583586494</v>
+        <v>10.84580830518583</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>36.26051587680394</v>
+        <v>34.98918312218187</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>36.26051588942498</v>
+        <v>38.12867377756125</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>36.26051584119924</v>
+        <v>21.70067781495705</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>36.26051587768765</v>
+        <v>43.29021755676016</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>36.2605158889366</v>
+        <v>46.9873544910181</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>36.26051589777316</v>
+        <v>47.59881196993248</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>36.26051591450879</v>
+        <v>54.75580961211065</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>36.26051592066802</v>
+        <v>57.76023412710107</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>36.26051587028635</v>
+        <v>18.81780565266392</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>36.26051591588261</v>
+        <v>45.31543086393127</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>36.2605159286089</v>
+        <v>50.85297371076522</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>36.26051587408938</v>
+        <v>4.826440035283198</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>36.26051591507059</v>
+        <v>35.9679329590455</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>36.26051592856735</v>
+        <v>43.56060584916675</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>36.26051589920035</v>
+        <v>4.381494992622123</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>36.26051594560789</v>
+        <v>31.62416714053641</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>36.26051596089177</v>
+        <v>38.22333791961211</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>36.26051591021718</v>
+        <v>19.23368580816904</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>36.26051595157962</v>
+        <v>44.91229137482172</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>36.26051596520193</v>
+        <v>51.5900767861058</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>36.26051596981575</v>
+        <v>47.36008922869181</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>36.26051598955512</v>
+        <v>55.9438738520529</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>36.2605159967413</v>
+        <v>60.99075113341291</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>36.26051593799884</v>
+        <v>17.78277154425616</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>36.26051599033189</v>
+        <v>53.70333858398328</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>36.26051600550698</v>
+        <v>60.05093349732461</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>36.26051593381067</v>
+        <v>9.707437354078728</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>36.26051597486548</v>
+        <v>44.27020500629025</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>36.26051598833405</v>
+        <v>52.17351540717423</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>36.26051595978348</v>
+        <v>11.12847244016888</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>36.26051600627436</v>
+        <v>42.42968017890593</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>36.26051602152631</v>
+        <v>49.22638577691387</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>36.26051597254227</v>
+        <v>30.4902696600905</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>36.26051601397899</v>
+        <v>59.38168943908267</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>36.26051602757285</v>
+        <v>66.44513616041979</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>36.26051602989271</v>
+        <v>68.74418649231914</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>36.26051604910832</v>
+        <v>76.94216910651745</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>36.26051605578256</v>
+        <v>83.21459199175102</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>36.26051599598581</v>
+        <v>32.47634188769234</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>36.26051604811125</v>
+        <v>71.82070445903678</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>36.26051606317532</v>
+        <v>79.1598138947177</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>36.26051581136762</v>
+        <v>6.299777763530688</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>36.26051584754046</v>
+        <v>32.86348595972136</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>36.26051585866247</v>
+        <v>36.86871928951532</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>36.26051583514578</v>
+        <v>10.27118975434727</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>36.26051587610827</v>
+        <v>34.21594942362883</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>36.26051588870294</v>
+        <v>37.05314754324722</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>36.26051584046542</v>
+        <v>21.14985400755956</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>36.26051587697476</v>
+        <v>42.52373812272826</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>36.26051588820022</v>
+        <v>45.95665870084748</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>36.2605158971993</v>
+        <v>47.19693736514845</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>36.26051591394804</v>
+        <v>54.09967596034299</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>36.26051592010661</v>
+        <v>57.00809574438674</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>36.26051586975598</v>
+        <v>18.49186563388753</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>36.26051591538065</v>
+        <v>44.73916080047947</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>36.26051592808473</v>
+        <v>50.01820219941949</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>36.26051587394349</v>
+        <v>6.869242396217381</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>36.26051591497733</v>
+        <v>37.92943887057261</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>36.26051592844045</v>
+        <v>45.1320708240339</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>36.2605158991262</v>
+        <v>6.486415921138352</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>36.26051594559333</v>
+        <v>33.65662948195075</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>36.2605159608391</v>
+        <v>39.8162115290656</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>36.2605159101453</v>
+        <v>21.44693658200541</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>36.26051595156085</v>
+        <v>47.01427886876763</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>36.26051596514921</v>
+        <v>53.31588274218385</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>36.26051596991275</v>
+        <v>49.73028327243069</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>36.26051598967106</v>
+        <v>58.02195693372117</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>36.26051599684706</v>
+        <v>62.87079068480743</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>36.2605159380903</v>
+        <v>20.14473405796924</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>36.26051599048668</v>
+        <v>55.83635538377818</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>36.26051600562727</v>
+        <v>61.82580660937461</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>36.2605159339961</v>
+        <v>11.8931346831129</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>36.26051597510933</v>
+        <v>46.40079791429578</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>36.26051598853993</v>
+        <v>53.93934874783706</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>36.26051596003674</v>
+        <v>13.44536066940585</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>36.26051600659378</v>
+        <v>44.70612528475887</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>36.26051602180273</v>
+        <v>51.09591718889124</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>36.26051597281136</v>
+        <v>32.90811931464381</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>36.26051601430704</v>
+        <v>61.71332840638415</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>36.26051602786258</v>
+        <v>68.42339694761891</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>36.26051603030385</v>
+        <v>71.31487889552358</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>36.26051604953703</v>
+        <v>79.22903727258311</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>36.26051605619833</v>
+        <v>85.29421992042505</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>36.26051599638369</v>
+        <v>35.00238931897943</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>36.26051604857449</v>
+        <v>74.15357745754832</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>36.26051606359865</v>
+        <v>81.15978610415648</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>36.26051580675653</v>
+        <v>-1.577084985709352</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>36.26051584202506</v>
+        <v>21.55634580963112</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>36.26051585352491</v>
+        <v>26.82301497675905</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>36.26051583057674</v>
+        <v>0.5460030037129115</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>36.26051587051517</v>
+        <v>20.53302626619904</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>36.26051588353772</v>
+        <v>24.90174753367631</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>36.26051583567018</v>
+        <v>9.913603186687286</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>36.26051587126678</v>
+        <v>28.0149525996902</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>36.26051588287361</v>
+        <v>32.58725710802171</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>36.26051589277453</v>
+        <v>33.16232376932862</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>36.26051590952013</v>
+        <v>38.97137843552989</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>36.26051591607106</v>
+        <v>43.38507600004939</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>36.26051586685576</v>
+        <v>9.447380956272134</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>36.26051591131429</v>
+        <v>31.58250915769585</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>36.26051592447659</v>
+        <v>38.45679522210555</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>36.26051587354863</v>
+        <v>1.993960835077768</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>36.26051591370375</v>
+        <v>29.92992443208387</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>36.2605159277287</v>
+        <v>38.67412783399337</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>36.26051589899924</v>
+        <v>0.2355141199441491</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>36.26051594447131</v>
+        <v>23.78406820613397</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>36.2605159603533</v>
+        <v>31.77517322259006</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>36.26051590972579</v>
+        <v>13.32061776392778</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>36.26051595025444</v>
+        <v>35.93531452847536</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>36.26051596440986</v>
+        <v>43.64288776549782</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>36.26051596949463</v>
+        <v>39.13124684724657</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>36.26051598940033</v>
+        <v>46.50625547404765</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>36.26051599699498</v>
+        <v>53.05780334371983</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>36.26051593913471</v>
+        <v>13.93385294284975</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>36.26051599046684</v>
+        <v>45.83818315383979</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>36.26051600622302</v>
+        <v>53.61522998376332</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>36.26051593443024</v>
+        <v>7.588259196073903</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>36.26051597467929</v>
+        <v>38.98275032607361</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>36.26051598869808</v>
+        <v>48.1012483508794</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>36.26051596051341</v>
+        <v>7.817504486231869</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>36.26051600609184</v>
+        <v>35.45614347856175</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>36.26051602196686</v>
+        <v>43.70686360344071</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>36.26051597316437</v>
+        <v>25.57924939732879</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>36.26051601378784</v>
+        <v>51.44156313590238</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>36.26051602793703</v>
+        <v>59.59752503731043</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>36.26051603052267</v>
+        <v>61.69786649371613</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>36.26051604985162</v>
+        <v>68.54815601046087</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>36.26051605690467</v>
+        <v>76.41865465820187</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>36.26051599792216</v>
+        <v>29.37386102547567</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>36.26051604902516</v>
+        <v>64.6676084464213</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>36.26051606471854</v>
+        <v>73.48707532148518</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>36.26051581878006</v>
+        <v>7.254422949635032</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>36.26051585436748</v>
+        <v>32.72041725929744</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>36.26051586574299</v>
+        <v>37.74463255528427</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>36.26051584333906</v>
+        <v>10.24265319415376</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>36.26051588363863</v>
+        <v>32.75156082320409</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>36.26051589652037</v>
+        <v>36.85742376913089</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>36.26051584876767</v>
+        <v>20.7340683263225</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>36.26051588468614</v>
+        <v>41.07927225116926</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>36.26051589616748</v>
+        <v>45.42592579484788</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>36.26051590525235</v>
+        <v>45.89897587884148</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>36.26051592207831</v>
+        <v>52.31255996351942</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>36.26051592851075</v>
+        <v>56.48171795387866</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>36.26051587865675</v>
+        <v>19.33258611890357</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>36.26051592344733</v>
+        <v>43.89607273626577</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>36.26051593646337</v>
+        <v>50.49628300165737</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>36.26051588580911</v>
+        <v>12.44246720787402</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>36.2605159262835</v>
+        <v>42.77325763874059</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>36.2605159401307</v>
+        <v>50.94602919789472</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>36.26051591192824</v>
+        <v>11.5453403952645</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>36.26051595776185</v>
+        <v>37.68852185199404</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>36.26051597344257</v>
+        <v>45.07971443366159</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>36.26051592298123</v>
+        <v>25.94549984349467</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>36.26051596383213</v>
+        <v>50.86616524717984</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>36.26051597780815</v>
+        <v>58.01723647545424</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>36.26051598211486</v>
+        <v>53.73184405398355</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>36.26051600209627</v>
+        <v>61.66465481767395</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>36.26051600955486</v>
+        <v>67.8498641909639</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>36.26051595115266</v>
+        <v>26.01018078684356</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>36.26051600281225</v>
+        <v>60.397427846687</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>36.26051601836043</v>
+        <v>67.58667996280936</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>36.2605159451793</v>
+        <v>15.93141531463891</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>36.26051598571337</v>
+        <v>49.55048551080536</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>36.26051599955668</v>
+        <v>58.15863775700539</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>36.26051597183204</v>
+        <v>17.05662715833532</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>36.26051601773322</v>
+        <v>47.1095552377369</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>36.26051603340953</v>
+        <v>54.82283818523587</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>36.26051598473048</v>
+        <v>36.01280871137844</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>36.26051602564161</v>
+        <v>64.01247739261831</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>36.26051603961371</v>
+        <v>71.67274975658287</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>36.26051604143331</v>
+        <v>74.11626414601135</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>36.26051606082864</v>
+        <v>81.48723344254878</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>36.26051606776223</v>
+        <v>88.99035020496878</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>36.26051600833414</v>
+        <v>39.38272387400634</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>36.26051605972798</v>
+        <v>77.07337744718849</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>36.26051607521876</v>
+        <v>85.33548937371455</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>36.2605158259103</v>
+        <v>7.623984810851812</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>36.26051586031562</v>
+        <v>33.97920740090061</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>36.26051587071575</v>
+        <v>37.4766248466364</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>36.26051584924181</v>
+        <v>11.51128498551155</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>36.26051588820275</v>
+        <v>35.48971979099302</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>36.26051589997996</v>
+        <v>37.91982324228181</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>36.26051585431419</v>
+        <v>22.2888032948823</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>36.26051588903956</v>
+        <v>43.73862146589611</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>36.26051589953644</v>
+        <v>46.6921831424697</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>36.26051590755926</v>
+        <v>47.53249618830053</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>36.26051592349637</v>
+        <v>54.53214428763607</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>36.26051592928469</v>
+        <v>57.21095937168602</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>36.26051588118035</v>
+        <v>19.39392100755373</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>36.26051592440639</v>
+        <v>45.17949802934612</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>36.26051593630142</v>
+        <v>49.9957394242841</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>36.26051588764484</v>
+        <v>13.7934311123731</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>36.26051592674987</v>
+        <v>44.72722394017389</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>36.26051593932911</v>
+        <v>50.93840063276697</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>36.26051591239395</v>
+        <v>13.49237778505526</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>36.26051595667688</v>
+        <v>40.89334110201967</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>36.26051597092175</v>
+        <v>46.15797387977294</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>36.26051592286078</v>
+        <v>28.46368123829259</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>36.26051596232958</v>
+        <v>54.20116195197982</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>36.26051597502585</v>
+        <v>59.56066858978737</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>36.26051597891554</v>
+        <v>56.04802869459455</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>36.26051599776977</v>
+        <v>64.47361381620634</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>36.26051600448874</v>
+        <v>68.95812180853412</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>36.26051594840496</v>
+        <v>27.19593147911582</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>36.260515998192</v>
+        <v>62.3271139603608</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>36.26051601233211</v>
+        <v>67.48053266595461</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>36.26051594307641</v>
+        <v>16.95356907872654</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>36.2605159822274</v>
+        <v>50.8931734185612</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>36.26051599478269</v>
+        <v>57.4641178807061</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>36.26051596851647</v>
+        <v>18.42348450757034</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>36.26051601285145</v>
+        <v>49.38264490391478</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>36.26051602706918</v>
+        <v>54.90415977028247</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>36.26051598061463</v>
+        <v>37.6200513474021</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>36.26051602012982</v>
+        <v>66.17661336446804</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>36.2605160328019</v>
+        <v>71.96623582519486</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>36.26051603448851</v>
+        <v>74.77854864185821</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>36.26051605283352</v>
+        <v>82.64647924953303</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>36.26051605907634</v>
+        <v>88.28351753033785</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>36.26051600206972</v>
+        <v>39.64053433148771</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>36.26051605162736</v>
+        <v>77.87689412845459</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>36.26051606567817</v>
+        <v>83.97550526510027</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>36.2605158070563</v>
+        <v>-5.290037424404854</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>36.26051584103197</v>
+        <v>16.90553082815911</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>36.260515852021</v>
+        <v>21.86516697569752</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>36.26051582975071</v>
+        <v>-2.355713364417557</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>36.26051586822511</v>
+        <v>17.13356903431664</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>36.26051588066919</v>
+        <v>21.10380195691277</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>36.26051583450759</v>
+        <v>6.652376657445288</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>36.26051586879932</v>
+        <v>23.99113107703747</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>36.26051587989057</v>
+        <v>28.36577001882317</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>36.26051588941617</v>
+        <v>29.86153139341634</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>36.26051590541042</v>
+        <v>35.77336829525651</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>36.2605159115888</v>
+        <v>39.22879307041679</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>36.26051586411819</v>
+        <v>5.752077005767529</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>36.26051590700141</v>
+        <v>27.34226645206813</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>36.26051591957923</v>
+        <v>33.67898693279587</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>36.26051587007309</v>
+        <v>2.326242974516006</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>36.26051590878402</v>
+        <v>29.52107212909074</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>36.26051592214603</v>
+        <v>38.0295084255402</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>36.26051589450839</v>
+        <v>1.703045437968989</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>36.26051593834505</v>
+        <v>25.01497495607911</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>36.26051595347633</v>
+        <v>32.68491050759508</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>36.26051590478692</v>
+        <v>14.76395901050236</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>36.26051594385796</v>
+        <v>36.79048291902372</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>36.26051595734427</v>
+        <v>44.39957045407499</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>36.26051596256553</v>
+        <v>40.4164829152478</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>36.26051598151601</v>
+        <v>48.08468799909278</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>36.260515988676</v>
+        <v>53.53364723463953</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>36.26051593296437</v>
+        <v>14.54015581530773</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>36.2605159824756</v>
+        <v>46.01781630372183</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>36.26051599750684</v>
+        <v>53.40951700081804</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>36.26051592919154</v>
+        <v>9.082727784491237</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>36.26051596802401</v>
+        <v>39.73900946420436</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>36.26051598137452</v>
+        <v>48.56424970182754</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>36.2605159544561</v>
+        <v>10.35383770404407</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>36.26051599843038</v>
+        <v>37.74297683268604</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>36.26051601354862</v>
+        <v>45.65296047110125</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>36.26051596650454</v>
+        <v>27.95231266686726</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>36.26051600569825</v>
+        <v>53.23368119099639</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>36.26051601917295</v>
+        <v>61.23387550442592</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>36.26051602198961</v>
+        <v>63.44898650612888</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>36.26051604041275</v>
+        <v>70.68858993994314</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>36.26051604706892</v>
+        <v>77.22817187866977</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>36.26051599027153</v>
+        <v>30.94450687808034</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>36.26051603961627</v>
+        <v>65.80380890629871</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>36.26051605455933</v>
+        <v>74.22825160013419</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>36.2605158117622</v>
+        <v>-6.649265756271671</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>36.26051584760102</v>
+        <v>17.61209413204278</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>36.26051585906448</v>
+        <v>22.78809922022636</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>36.26051583611699</v>
+        <v>-4.048721535696675</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>36.26051587670123</v>
+        <v>17.17992101387346</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>36.26051588968257</v>
+        <v>21.4088246708354</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>36.26051584138622</v>
+        <v>5.433575153381756</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>36.26051587755842</v>
+        <v>24.60050860547083</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>36.26051588912851</v>
+        <v>29.10105642158176</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>36.26051589853917</v>
+        <v>30.01019978886011</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>36.26051591547383</v>
+        <v>36.1282535191518</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>36.26051592196026</v>
+        <v>40.40696035057729</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>36.26051587185076</v>
+        <v>4.451291183405782</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>36.26051591697922</v>
+        <v>27.89057055872829</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>36.26051593009699</v>
+        <v>34.59353241867013</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>36.26051587849739</v>
+        <v>-4.725185600959616</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>36.26051591925463</v>
+        <v>24.31613591660919</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>36.26051593320547</v>
+        <v>32.75509536609287</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>36.26051590440978</v>
+        <v>-6.213384568983582</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>36.26051595056369</v>
+        <v>18.54643192167529</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>36.26051596636176</v>
+        <v>26.1686480204568</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>36.26051591534856</v>
+        <v>7.060523894084746</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>36.26051595648494</v>
+        <v>30.71897523939476</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>36.26051597056556</v>
+        <v>38.14089847428525</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>36.26051597523064</v>
+        <v>34.22839208245302</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>36.26051599533412</v>
+        <v>41.86195922458631</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>36.26051600286509</v>
+        <v>48.22976932586947</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>36.26051594412922</v>
+        <v>7.459784846662444</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>36.26051599616523</v>
+        <v>40.66636508887393</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>36.26051601183842</v>
+        <v>48.06889374804135</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>36.26051593886926</v>
+        <v>-0.01512740768831478</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>36.26051597969639</v>
+        <v>32.44377501243586</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>36.26051599365527</v>
+        <v>41.37539073242915</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>36.26051596540321</v>
+        <v>0.5521266739600996</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>36.26051601163626</v>
+        <v>29.36262950349079</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>36.26051602744344</v>
+        <v>37.36648401171367</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>36.26051597821281</v>
+        <v>18.45359075997877</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>36.26051601941972</v>
+        <v>45.31967653215072</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>36.26051603350845</v>
+        <v>53.30434503650304</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>36.26051603567033</v>
+        <v>55.94438496518559</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>36.26051605520364</v>
+        <v>63.06607216510461</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>36.26051606220715</v>
+        <v>70.82340805514393</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>36.26051600239449</v>
+        <v>22.09027401431872</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>36.26051605418142</v>
+        <v>58.69921096614922</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>36.2605160698075</v>
+        <v>67.23499552724267</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>36.26051582868227</v>
+        <v>12.23845981581275</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>36.26051586389037</v>
+        <v>39.54178634726989</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>36.2605158747247</v>
+        <v>43.54362768435404</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>36.26051585331737</v>
+        <v>17.55120717787497</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>36.26051589318738</v>
+        <v>42.47579834128097</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>36.26051590545629</v>
+        <v>45.348106258809</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>36.26051585879085</v>
+        <v>29.12522925068137</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>36.26051589432647</v>
+        <v>51.3259004829327</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>36.26051590526158</v>
+        <v>54.78189533806315</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>36.26051591348197</v>
+        <v>56.01760095911211</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>36.26051592984106</v>
+        <v>63.36477502896031</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>36.26051593584543</v>
+        <v>65.96437606843843</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>36.26051588649674</v>
+        <v>27.00445814650218</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>36.26051593080028</v>
+        <v>53.89393777882284</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>36.26051594320312</v>
+        <v>59.39946509555307</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>36.26051589012938</v>
+        <v>9.979361839976487</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>36.26051593009726</v>
+        <v>41.78909727296922</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>36.26051594316129</v>
+        <v>48.62353058957005</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>36.2605159161279</v>
+        <v>10.41804292221938</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>36.26051596138792</v>
+        <v>38.63540854561525</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>36.26051597618177</v>
+        <v>44.46668476172108</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>36.26051592708806</v>
+        <v>25.8324741251534</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>36.26051596742773</v>
+        <v>52.250608795697</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>36.26051598061329</v>
+        <v>58.224644950979</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>36.260515984643</v>
+        <v>54.92214503444293</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>36.26051600396908</v>
+        <v>63.7430936277719</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>36.26051601091149</v>
+        <v>68.08690766630042</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>36.26051595348164</v>
+        <v>25.33286347182778</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>36.26051600443459</v>
+        <v>61.59816207493175</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>36.26051601912744</v>
+        <v>67.37656450228977</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>36.2605159469548</v>
+        <v>13.86130578364595</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>36.26051598696915</v>
+        <v>48.87723656692584</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>36.26051599999852</v>
+        <v>56.10106489454297</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>36.26051597364211</v>
+        <v>16.35638477177949</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>36.26051601895477</v>
+        <v>48.37397716748679</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>36.26051603370935</v>
+        <v>54.51435113845847</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>36.2605159862558</v>
+        <v>36.08488428813968</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>36.26051602664239</v>
+        <v>65.51104614213016</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>36.26051603979295</v>
+        <v>71.94217542898258</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>36.26051604153004</v>
+        <v>75.01984680131038</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>36.26051606030228</v>
+        <v>83.36811949315093</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>36.26051606675188</v>
+        <v>88.86927797249233</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>36.26051600840134</v>
+        <v>38.91303817739619</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>36.26051605910801</v>
+        <v>78.44628001599733</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>36.26051607368893</v>
+        <v>85.28596845446209</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>36.26051580213008</v>
+        <v>-7.423861193078967</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>36.26051583544448</v>
+        <v>14.08412121092686</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>36.26051584623333</v>
+        <v>19.3251702109522</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>36.26051582324079</v>
+        <v>-5.021923075643254</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>36.26051586096635</v>
+        <v>13.69088300347608</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>36.26051587318376</v>
+        <v>17.96654433607214</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>36.26051582785117</v>
+        <v>3.17978248915167</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>36.26051586147547</v>
+        <v>19.9435586944014</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>36.26051587236469</v>
+        <v>24.59344326407275</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>36.26051588169128</v>
+        <v>24.99179867161592</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>36.26051589729234</v>
+        <v>30.70910655805985</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>36.26051590330878</v>
+        <v>34.54980181597758</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>36.26051585692619</v>
+        <v>1.09571474184763</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>36.26051589909489</v>
+        <v>22.33112875288552</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>36.26051591140781</v>
+        <v>28.64743127134521</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>36.26051586150014</v>
+        <v>-2.978223479229133</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>36.26051589932801</v>
+        <v>23.1025378054409</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>36.26051591249515</v>
+        <v>32.14159053207484</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>36.26051588408644</v>
+        <v>-4.124777255443146</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>36.26051592692311</v>
+        <v>17.96723845262624</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>36.26051594183371</v>
+        <v>26.18323176359811</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>36.2605158941167</v>
+        <v>7.95915293627554</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>36.26051593229646</v>
+        <v>28.99730521298866</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>36.26051594558609</v>
+        <v>37.12474221004624</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>36.26051595082269</v>
+        <v>31.92150357028798</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>36.26051596925254</v>
+        <v>39.23932976971079</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>36.2605159763039</v>
+        <v>45.26114464884898</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>36.26051592189263</v>
+        <v>6.260663253832796</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>36.26051597037564</v>
+        <v>36.93526894684683</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>36.2605159851863</v>
+        <v>44.68172189394227</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>36.26051591991861</v>
+        <v>3.163140441291628</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>36.26051595786842</v>
+        <v>32.62650097064547</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>36.26051597107146</v>
+        <v>42.05582130174649</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>36.26051594342128</v>
+        <v>3.536279087451899</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>36.26051598639602</v>
+        <v>29.63801118377804</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>36.26051600134727</v>
+        <v>38.14530067418434</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>36.26051595516222</v>
+        <v>20.07077515638727</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>36.26051599346506</v>
+        <v>44.28968950065759</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>36.26051600679091</v>
+        <v>52.8796564710556</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>36.26051600970548</v>
+        <v>53.7804622351926</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>36.26051602766213</v>
+        <v>60.75701443803126</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>36.26051603423394</v>
+        <v>68.02941607295779</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>36.26051597867438</v>
+        <v>21.73175437859101</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>36.26051602702113</v>
+        <v>55.65921693841994</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>36.26051604178809</v>
+        <v>64.51290518917919</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>36.2605158104892</v>
+        <v>2.129284478796411</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>36.26051584530774</v>
+        <v>27.49536352561052</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>36.26051585588771</v>
+        <v>31.13704270952926</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>36.26051583266643</v>
+        <v>4.895810981559212</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>36.2605158720953</v>
+        <v>27.66025122371481</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>36.26051588407616</v>
+        <v>30.1960917099728</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>36.26051583756016</v>
+        <v>14.9378483282369</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>36.26051587270261</v>
+        <v>35.32610367624743</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>36.260515883381</v>
+        <v>38.40394277286546</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>36.26051589211514</v>
+        <v>39.36323263651255</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>36.26051590819594</v>
+        <v>45.87214388263538</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>36.2605159140699</v>
+        <v>48.80124543390627</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>36.26051586573336</v>
+        <v>11.87274310214152</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>36.26051590962037</v>
+        <v>36.84496302599527</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>36.26051592169386</v>
+        <v>41.58321105092097</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>36.26051587176481</v>
+        <v>8.422734096828776</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>36.26051591129039</v>
+        <v>38.22360546442977</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>36.26051592413114</v>
+        <v>44.98132482607279</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>36.26051589535117</v>
+        <v>7.388648931107063</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>36.26051594011034</v>
+        <v>33.3687074022352</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>36.26051595465134</v>
+        <v>39.14234607763795</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>36.26051590576171</v>
+        <v>21.70811029371131</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>36.26051594565497</v>
+        <v>46.23064169589223</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>36.26051595861517</v>
+        <v>52.10386515250003</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>36.26051596325708</v>
+        <v>48.41307284466788</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>36.26051598224107</v>
+        <v>56.23670659385476</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>36.2605159891113</v>
+        <v>61.13777559851674</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>36.26051593261379</v>
+        <v>19.9309422304523</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>36.26051598305244</v>
+        <v>54.13725685116238</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>36.26051599748798</v>
+        <v>59.66542372868456</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>36.26051592974142</v>
+        <v>13.31781202427974</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>36.26051596934827</v>
+        <v>46.4262726092927</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>36.26051598216476</v>
+        <v>53.48258164991624</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>36.26051595418684</v>
+        <v>14.02218782076327</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>36.26051599903804</v>
+        <v>43.92294550507205</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>36.26051601355157</v>
+        <v>49.87247163603794</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>36.26051596630551</v>
+        <v>32.73018343667824</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>36.2605160062808</v>
+        <v>60.35889574796732</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>36.26051601921652</v>
+        <v>66.60482642831101</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>36.26051602165257</v>
+        <v>69.22300785258361</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>36.26051604015859</v>
+        <v>76.65020546670192</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>36.2605160465358</v>
+        <v>82.75002275504056</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>36.26051598898871</v>
+        <v>34.24753740591862</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>36.26051603924372</v>
+        <v>71.79725001554321</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>36.26051605358031</v>
+        <v>78.23676902677096</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>36.26051579824326</v>
+        <v>-6.427751210512252</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>36.26051583235724</v>
+        <v>15.84001076134697</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>36.2605158431106</v>
+        <v>20.0992230180636</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>36.26051581970467</v>
+        <v>-4.290650574070877</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>36.26051585833568</v>
+        <v>15.15446137550956</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>36.2605158705129</v>
+        <v>18.33252352371954</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>36.26051582425347</v>
+        <v>4.578128740126015</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>36.26051585868479</v>
+        <v>21.98784903986694</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>36.26051586953819</v>
+        <v>25.66338107694808</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>36.26051587922139</v>
+        <v>26.5037642439688</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>36.26051589507997</v>
+        <v>32.29402714478046</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>36.26051590110369</v>
+        <v>35.46514019806274</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>36.26051585385255</v>
+        <v>2.370763113878141</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>36.26051589694288</v>
+        <v>23.88882888503548</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>36.26051590923177</v>
+        <v>29.31781375041609</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>36.26051585804768</v>
+        <v>-7.479295921922162</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>36.26051589680181</v>
+        <v>18.97770152431039</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>36.26051590986687</v>
+        <v>26.8411673770269</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>36.26051588097997</v>
+        <v>-9.566005905417139</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>36.26051592486554</v>
+        <v>12.82402800806886</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>36.26051593966054</v>
+        <v>19.74096143929196</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>36.26051589100579</v>
+        <v>3.134093544137706</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>36.26051593012043</v>
+        <v>24.43753869253951</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>36.26051594330703</v>
+        <v>31.39913820505564</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>36.26051594893814</v>
+        <v>27.2857949276009</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>36.26051596766863</v>
+        <v>34.42582032057138</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>36.26051597469753</v>
+        <v>39.71515941442308</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>36.26051591931749</v>
+        <v>2.011547084090815</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>36.26051596887921</v>
+        <v>32.55595712682492</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>36.26051598358618</v>
+        <v>39.1959868532911</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>36.26051591771157</v>
+        <v>0.4032852376500031</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>36.26051595659412</v>
+        <v>30.48497667777476</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>36.26051596962682</v>
+        <v>38.52906880450861</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>36.26051594163571</v>
+        <v>-0.01207536948109222</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>36.2605159856667</v>
+        <v>26.63105310047786</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>36.26051600042507</v>
+        <v>33.61571382965568</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>36.26051595346981</v>
+        <v>17.30551111038872</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>36.26051599271407</v>
+        <v>42.0261752671618</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>36.26051600586801</v>
+        <v>49.24544748976103</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>36.26051600929173</v>
+        <v>51.2709806689134</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>36.26051602754602</v>
+        <v>58.08535860565681</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>36.26051603406001</v>
+        <v>64.52944625511668</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>36.26051597753511</v>
+        <v>19.28951052142384</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>36.26051602696452</v>
+        <v>53.37234782496597</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>36.26051604155437</v>
+        <v>60.87881630518225</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>36.2605157953966</v>
+        <v>-12.37641268327165</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>36.260515828066</v>
+        <v>8.173327049088822</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>36.26051583831704</v>
+        <v>11.98774409873672</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>36.26051581522353</v>
+        <v>-11.24200007981078</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>36.2605158522187</v>
+        <v>6.507112848550726</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>36.26051586382708</v>
+        <v>9.271994109037454</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>36.260515819262</v>
+        <v>-3.45232633541394</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>36.26051585223532</v>
+        <v>12.45214040465072</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>36.26051586258172</v>
+        <v>15.69498651228801</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>36.26051587220196</v>
+        <v>16.73161605907731</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>36.26051588738194</v>
+        <v>21.98084646737694</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>36.26051589314202</v>
+        <v>25.13744308902331</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>36.26051584807777</v>
+        <v>-5.436630105946623</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>36.26051588934136</v>
+        <v>14.34401806625099</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>36.2605159010481</v>
+        <v>19.25398801100698</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>36.26051585305574</v>
+        <v>-11.1404427972223</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>36.260515890188</v>
+        <v>13.46418067441562</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>36.2605159026692</v>
+        <v>20.76573666390603</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>36.26051587431844</v>
+        <v>-13.84457902305355</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>36.26051591636738</v>
+        <v>6.756075984737436</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>36.26051593050123</v>
+        <v>13.13683663821253</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>36.26051588361668</v>
+        <v>-2.260154118831544</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>36.26051592109435</v>
+        <v>17.41170014433511</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>36.26051593369166</v>
+        <v>23.83512424251293</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>36.26051593942218</v>
+        <v>20.15561224954078</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>36.26051595736298</v>
+        <v>26.69711344415043</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>36.26051596410355</v>
+        <v>31.95166659890284</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>36.26051591117132</v>
+        <v>-3.235335601951579</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>36.26051595865516</v>
+        <v>25.27106417877643</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>36.26051597270251</v>
+        <v>31.4060488894605</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>36.26051591073861</v>
+        <v>-3.266967011265155</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>36.26051594799783</v>
+        <v>24.82434675402185</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>36.26051596045977</v>
+        <v>32.29335946734535</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>36.26051593301007</v>
+        <v>-4.40060937256602</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>36.26051597520278</v>
+        <v>20.28579052562576</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>36.26051598931481</v>
+        <v>26.71513376610243</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>36.26051594406632</v>
+        <v>11.63876921376273</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>36.26051598167214</v>
+        <v>34.60172302495089</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>36.26051599425</v>
+        <v>41.26498556067735</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>36.26051599789075</v>
+        <v>43.50656877691354</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>36.26051601539856</v>
+        <v>49.70443956230709</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>36.26051602164788</v>
+        <v>56.1054268806059</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>36.2605159675615</v>
+        <v>13.67002736954059</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>36.26051601492846</v>
+        <v>45.56264135336657</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>36.26051602888164</v>
+        <v>52.50368014237215</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>36.26051580717056</v>
+        <v>2.123313290146431</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>36.26051584304858</v>
+        <v>25.89876154141522</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>36.26051585479677</v>
+        <v>31.45592636444731</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>36.26051583159221</v>
+        <v>4.448210050421352</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>36.26051587222084</v>
+        <v>25.07484663677904</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>36.26051588552461</v>
+        <v>29.70529904131745</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>36.26051583698542</v>
+        <v>14.5570490512636</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>36.26051587319719</v>
+        <v>33.22286034411337</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>36.26051588505467</v>
+        <v>38.09772389628333</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>36.26051589505542</v>
+        <v>38.68985537971621</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>36.2605159120779</v>
+        <v>44.73576362443718</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>36.26051591873979</v>
+        <v>49.06253817527382</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>36.26051586858133</v>
+        <v>13.92238635930177</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>36.26051591384446</v>
+        <v>36.75541825824049</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>36.26051592728971</v>
+        <v>43.89105896008789</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>36.26051587427431</v>
+        <v>1.833362121044299</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>36.26051591510238</v>
+        <v>30.37329198191906</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>36.260515929406</v>
+        <v>39.40170654535241</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>36.26051590033788</v>
+        <v>-0.03342398726663731</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>36.26051594657199</v>
+        <v>24.09402399527202</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>36.26051596276956</v>
+        <v>32.33893599128328</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>36.26051591145424</v>
+        <v>13.69802464985982</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>36.2605159526621</v>
+        <v>36.83720328938927</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>36.26051596709878</v>
+        <v>44.83831458813924</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>36.26051597229117</v>
+        <v>40.3884100305032</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>36.26051599250685</v>
+        <v>48.01958887761911</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>36.26051600021911</v>
+        <v>54.42741145083457</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>36.26051594134062</v>
+        <v>14.32995767637119</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>36.26051599356696</v>
+        <v>46.94621231134849</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>36.26051600963903</v>
+        <v>54.95491573832685</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>36.26051593623681</v>
+        <v>8.106607718180292</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>36.26051597716329</v>
+        <v>40.20887366433716</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>36.26051599146521</v>
+        <v>49.64337540263803</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>36.26051596294236</v>
+        <v>8.267658492121516</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>36.26051600928792</v>
+        <v>36.60838936087445</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>36.26051602548356</v>
+        <v>45.15481047128054</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>36.2605159759929</v>
+        <v>26.79376427127939</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>36.2605160173001</v>
+        <v>53.27786173206731</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>36.26051603173506</v>
+        <v>61.76019574690335</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>36.2605160343436</v>
+        <v>63.95903765629795</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>36.26051605396596</v>
+        <v>71.10071875632453</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>36.26051606113395</v>
+        <v>78.81853192740725</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>36.26051600112359</v>
+        <v>30.61659514302</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>36.26051605311731</v>
+        <v>66.7176968514933</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>36.2605160691239</v>
+        <v>75.84375855305932</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>36.2605158090168</v>
+        <v>6.794656558900797</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>36.26051584330827</v>
+        <v>31.25006219085905</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>36.26051585407376</v>
+        <v>35.75546017188378</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>36.26051583098936</v>
+        <v>10.38109902365386</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>36.26051586982136</v>
+        <v>32.18398001501122</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>36.26051588201231</v>
+        <v>35.63388139833872</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>36.26051583592338</v>
+        <v>20.15013339076844</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>36.26051587053384</v>
+        <v>39.68261080481216</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>36.26051588139947</v>
+        <v>43.61305832661083</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>36.26051589029066</v>
+        <v>43.95278820235634</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>36.26051590620504</v>
+        <v>50.38817738998817</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>36.26051591216952</v>
+        <v>53.69837679009952</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>36.26051586447026</v>
+        <v>17.39332443167579</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>36.26051590781543</v>
+        <v>41.62069966337867</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>36.2605159200936</v>
+        <v>47.23716949278997</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>36.2605158678864</v>
+        <v>5.504149746321822</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>36.26051590673686</v>
+        <v>34.15208366424095</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>36.26051591982586</v>
+        <v>42.13970242339876</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>36.26051589112976</v>
+        <v>5.017693900069915</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>36.26051593512442</v>
+        <v>29.76456522671473</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>36.26051594994652</v>
+        <v>36.84060614162408</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>36.2605159015181</v>
+        <v>18.55592000089823</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>36.26051594072997</v>
+        <v>41.99506066942656</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>36.26051595394072</v>
+        <v>49.07906623617026</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>36.26051595878432</v>
+        <v>44.47842431550005</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>36.26051597754417</v>
+        <v>52.27432111113382</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>36.26051598453435</v>
+        <v>57.65908133870702</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>36.26051592880475</v>
+        <v>16.86162654746797</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>36.2605159785152</v>
+        <v>50.13078904765185</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>36.26051599322925</v>
+        <v>56.88815214910954</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>36.26051592593587</v>
+        <v>9.903891475254081</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>36.26051596487444</v>
+        <v>41.88955797832295</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>36.26051597795978</v>
+        <v>50.16839032745563</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>36.26051595006595</v>
+        <v>11.05001378496996</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>36.26051599416039</v>
+        <v>39.76831680889171</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>36.26051600897836</v>
+        <v>47.01587243187798</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>36.2605159621548</v>
+        <v>28.96144316534458</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>36.26051600145559</v>
+        <v>55.53233720604524</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>36.26051601466266</v>
+        <v>62.98348531772012</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>36.26051601728712</v>
+        <v>64.67172426229845</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>36.26051603556279</v>
+        <v>72.16703996888522</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>36.26051604205983</v>
+        <v>78.76265689017981</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>36.26051598524874</v>
+        <v>30.61826235998642</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>36.26051603478352</v>
+        <v>67.17382340049046</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>36.26051604941305</v>
+        <v>74.8820754897594</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>36.26051581962667</v>
+        <v>7.385124973595012</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>36.26051585624752</v>
+        <v>34.04429128438125</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>36.260515867986</v>
+        <v>39.3291821697164</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>36.26051584527917</v>
+        <v>11.29169276181624</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>36.26051588674898</v>
+        <v>35.00712429871447</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>36.26051590004177</v>
+        <v>39.32397996751367</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>36.26051585103556</v>
+        <v>22.38081658343025</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>36.26051588799707</v>
+        <v>43.75728973721129</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>36.26051589984475</v>
+        <v>48.36371273403877</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>36.26051590902308</v>
+        <v>48.93642161131871</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>36.26051592632552</v>
+        <v>55.82358933024248</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>36.26051593292891</v>
+        <v>59.87311336840189</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>36.26051588155355</v>
+        <v>21.23706129303542</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>36.26051592767634</v>
+        <v>47.1893196275303</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>36.26051594111104</v>
+        <v>54.15754835066105</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>36.26051588716709</v>
+        <v>7.882659216984752</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>36.26051592878385</v>
+        <v>39.40967779106193</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>36.26051594304214</v>
+        <v>47.94414370438464</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>36.26051591432901</v>
+        <v>7.337900069214498</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>36.26051596145625</v>
+        <v>34.6460547743008</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>36.26051597760248</v>
+        <v>42.35827460816644</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>36.26051592584122</v>
+        <v>22.20617591342227</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>36.26051596784512</v>
+        <v>48.16081020407029</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>36.26051598223605</v>
+        <v>55.66523480571284</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>36.26051598656663</v>
+        <v>51.2917392010085</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>36.26051600709572</v>
+        <v>59.76160684067555</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>36.26051601473988</v>
+        <v>65.84624325959336</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>36.26051595465183</v>
+        <v>22.53201540618837</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>36.26051600779906</v>
+        <v>58.46414602545067</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>36.26051602381245</v>
+        <v>66.00310588905295</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>36.26051594789732</v>
+        <v>11.9888445153534</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>36.26051598957486</v>
+        <v>46.92103275251613</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>36.26051600381486</v>
+        <v>55.88885364326205</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>36.26051597560375</v>
+        <v>13.61061508600667</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>36.2605160227998</v>
+        <v>44.96963001338013</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>36.26051603892533</v>
+        <v>53.00973007095133</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>36.26051598898154</v>
+        <v>33.1317500328832</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>36.26051603104677</v>
+        <v>62.27660896734565</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>36.26051604541925</v>
+        <v>70.28820253411175</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>36.26051604719947</v>
+        <v>72.77394048193922</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>36.26051606711182</v>
+        <v>80.71820094267377</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>36.26051607421599</v>
+        <v>88.11807208568126</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>36.26051601309514</v>
+        <v>36.82446757878203</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>36.26051606596666</v>
+        <v>76.16770691780613</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>36.2605160818999</v>
+        <v>84.82315868172637</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>36.26051581896265</v>
+        <v>7.19902283339259</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>36.26051585382358</v>
+        <v>31.35053643581369</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>36.26051586513395</v>
+        <v>36.72658173788604</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>36.26051584329497</v>
+        <v>10.81911861411688</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>36.26051588277184</v>
+        <v>31.93931165940369</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>36.26051589557981</v>
+        <v>36.45592548078648</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>36.26051584856695</v>
+        <v>20.55332984300466</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>36.26051588375218</v>
+        <v>39.67444260353572</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>36.26051589516775</v>
+        <v>44.35718885397736</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>36.26051590438561</v>
+        <v>44.72907749235566</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>36.26051592094196</v>
+        <v>50.68055552571732</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>36.2605159273579</v>
+        <v>55.05151492121118</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>36.26051587851138</v>
+        <v>19.58452147140404</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>36.26051592242353</v>
+        <v>42.73527986252186</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>36.26051593537947</v>
+        <v>49.81419914592031</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>36.26051588499019</v>
+        <v>9.047726572658256</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>36.26051592464753</v>
+        <v>37.89839363694892</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>36.26051593842307</v>
+        <v>46.50555416946131</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>36.26051591087191</v>
+        <v>8.878522129148102</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>36.26051595578028</v>
+        <v>33.46317939469526</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>36.26051597137985</v>
+        <v>41.35817467373423</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>36.26051592165246</v>
+        <v>22.11209731912499</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>36.26051596167871</v>
+        <v>45.65645128783746</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>36.26051597558239</v>
+        <v>53.22628730564751</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>36.26051598001175</v>
+        <v>48.78353713098512</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>36.2605159996852</v>
+        <v>56.21630410872952</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>36.26051600711588</v>
+        <v>62.587302523586</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>36.26051594982877</v>
+        <v>22.42558772190312</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>36.26051600049378</v>
+        <v>55.14447910164716</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>36.26051601597057</v>
+        <v>62.89413857263568</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>36.26051594385802</v>
+        <v>13.11645983538929</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>36.26051598357965</v>
+        <v>45.25578767272142</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>36.26051599734798</v>
+        <v>54.27807449898513</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>36.26051597023446</v>
+        <v>14.94802881684439</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>36.26051601521563</v>
+        <v>43.4466811877814</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>36.26051603080703</v>
+        <v>51.64235357565441</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>36.26051598286748</v>
+        <v>32.7326247380968</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>36.26051602295861</v>
+        <v>59.35537508274442</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>36.26051603685502</v>
+        <v>67.41524936747788</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>36.26051603881348</v>
+        <v>69.61907833763679</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>36.26051605789588</v>
+        <v>76.51131371012832</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>36.26051606480033</v>
+        <v>84.18679462663822</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>36.2605160064825</v>
+        <v>36.21849582133628</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>36.260516056884</v>
+        <v>72.19887180910733</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>36.26051607229984</v>
+        <v>81.02246247270591</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>36.26051581131973</v>
+        <v>5.148662206762587</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>36.26051584770728</v>
+        <v>31.50170741126875</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>36.26051585910562</v>
+        <v>36.2668474782481</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>36.26051583549769</v>
+        <v>9.217426910852129</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>36.26051587670334</v>
+        <v>32.75421613004746</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>36.26051588961093</v>
+        <v>36.42625719127033</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>36.26051584102488</v>
+        <v>19.78842960243013</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>36.26051587775093</v>
+        <v>40.94249033243985</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>36.2605158892553</v>
+        <v>45.08578295988839</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>36.26051589840909</v>
+        <v>45.6862263226614</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>36.26051591536709</v>
+        <v>52.48034629019736</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>36.26051592170742</v>
+        <v>56.07323369593148</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>36.26051587093731</v>
+        <v>17.02866337269766</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>36.26051591687744</v>
+        <v>43.15091248740117</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>36.26051592989934</v>
+        <v>49.25267898810154</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>36.26051587480229</v>
+        <v>3.836429058616833</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>36.26051591605432</v>
+        <v>34.76808721152921</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>36.26051592988951</v>
+        <v>42.85499100434116</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>36.26051590034124</v>
+        <v>3.568598377882513</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>36.26051594705546</v>
+        <v>30.40498037335357</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>36.26051596272256</v>
+        <v>37.51047662637036</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>36.26051591160395</v>
+        <v>17.97020229203881</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>36.26051595323973</v>
+        <v>43.40814474327641</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>36.26051596720361</v>
+        <v>50.53496257907263</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>36.26051597194295</v>
+        <v>46.08401047980077</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>36.26051599196526</v>
+        <v>54.3271758351784</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>36.26051599936449</v>
+        <v>59.93340312680146</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>36.26051594008356</v>
+        <v>16.42812804043806</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>36.26051599282108</v>
+        <v>52.14562817110158</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>36.2605160083833</v>
+        <v>59.07204928448117</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>36.26051593553535</v>
+        <v>7.702306720595875</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>36.26051597686204</v>
+        <v>42.00285245080681</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>36.26051599071393</v>
+        <v>50.56638659465669</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>36.26051596184081</v>
+        <v>9.287149806754101</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>36.26051600863958</v>
+        <v>40.15056107682292</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>36.26051602432561</v>
+        <v>47.62654752964953</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>36.26051597488129</v>
+        <v>28.21049767899298</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>36.26051601659243</v>
+        <v>56.80805036829764</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>36.26051603057318</v>
+        <v>64.48145656779921</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>36.26051603285431</v>
+        <v>66.70269785557092</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>36.26051605233448</v>
+        <v>74.5187356235401</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>36.26051605922085</v>
+        <v>81.50548437465012</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>36.26051599884471</v>
+        <v>30.25659076787777</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>36.2605160513624</v>
+        <v>69.308105252237</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>36.26051606686104</v>
+        <v>77.40559329131329</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>36.26051580900274</v>
+        <v>-3.597685532369045</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>36.26051584256243</v>
+        <v>18.48547657007862</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>36.26051585362163</v>
+        <v>23.86942881371601</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>36.26051583144922</v>
+        <v>-1.369027163565569</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>36.26051586945255</v>
+        <v>17.85558058024073</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>36.26051588197609</v>
+        <v>22.26331816816919</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>36.26051583622104</v>
+        <v>7.635412269722121</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>36.26051587009292</v>
+        <v>24.87520894988154</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>36.26051588125499</v>
+        <v>29.62526116641879</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>36.26051589065787</v>
+        <v>29.83380291000266</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>36.26051590658929</v>
+        <v>35.53853180013114</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>36.26051591287935</v>
+        <v>39.68176315931421</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>36.26051586588859</v>
+        <v>6.337622118678958</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>36.26051590825646</v>
+        <v>27.63995256369542</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>36.26051592092257</v>
+        <v>34.51622700108501</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>36.26051587283349</v>
+        <v>2.022913916830497</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>36.26051591107156</v>
+        <v>29.01006475646972</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>36.26051592457191</v>
+        <v>38.07057970132337</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>36.26051589699743</v>
+        <v>0.8061905145529877</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>36.26051594029862</v>
+        <v>23.75827697525274</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>36.26051595558655</v>
+        <v>31.98386296233807</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>36.26051590721942</v>
+        <v>13.46340947621512</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>36.2605159458132</v>
+        <v>35.30792879913396</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>36.26051595943913</v>
+        <v>43.40816093447376</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>36.26051596434888</v>
+        <v>38.42958720931198</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>36.26051598328479</v>
+        <v>45.81150204900355</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>36.26051599058197</v>
+        <v>52.17173415903099</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>36.26051593532282</v>
+        <v>13.16210614600968</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>36.26051598426697</v>
+        <v>44.27209685119474</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>36.26051599945634</v>
+        <v>52.38584711741539</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>36.26051593146071</v>
+        <v>7.745427785650978</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>36.26051596982028</v>
+        <v>38.14282711077206</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>36.26051598332547</v>
+        <v>47.56015289714253</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>36.26051595626385</v>
+        <v>8.241052448025446</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>36.26051599970261</v>
+        <v>35.23149500313981</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>36.26051601499603</v>
+        <v>43.72100876063143</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>36.26051596828886</v>
+        <v>25.42587669258692</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>36.26051600700526</v>
+        <v>50.47834819111092</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>36.26051602063609</v>
+        <v>59.00211388274133</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>36.26051602305763</v>
+        <v>60.21823912539448</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>36.26051604146304</v>
+        <v>67.14065788965554</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>36.26051604824394</v>
+        <v>74.71064879984223</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>36.26051599187601</v>
+        <v>28.15857096374787</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>36.26051604064053</v>
+        <v>62.55931832845074</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>36.26051605577427</v>
+        <v>71.75059328978877</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>36.26051581684867</v>
+        <v>4.16625677974168</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>36.26051585143098</v>
+        <v>27.81406949521399</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>36.2605158627689</v>
+        <v>33.3938755031371</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>36.26051584089419</v>
+        <v>7.378383711903655</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>36.26051588005554</v>
+        <v>27.97846320706721</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>36.26051589289472</v>
+        <v>32.71751818805621</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>36.2605158460992</v>
+        <v>16.92643329995318</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>36.26051588100321</v>
+        <v>35.57307317294649</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>36.2605158924466</v>
+        <v>40.45429681842695</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>36.26051590179348</v>
+        <v>40.80277161207366</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>36.26051591826316</v>
+        <v>46.65749001872501</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>36.26051592470031</v>
+        <v>51.18889975510682</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>36.26051587622646</v>
+        <v>16.22630042338471</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>36.26051591982194</v>
+        <v>38.90166562303652</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>36.26051593280457</v>
+        <v>46.15407226367833</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>36.26051588254005</v>
+        <v>5.519159373116349</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>36.26051592188789</v>
+        <v>33.88161888871278</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>36.2605159357152</v>
+        <v>42.81116555076515</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>36.26051590816223</v>
+        <v>4.967970026420193</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>36.26051595272011</v>
+        <v>29.05241808501829</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>36.26051596837831</v>
+        <v>37.29432008682137</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>36.26051591885569</v>
+        <v>17.96677778939569</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>36.26051595856956</v>
+        <v>41.05257508500871</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>36.2605159725255</v>
+        <v>48.9382501176779</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>36.2605159770855</v>
+        <v>44.36161395342389</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>36.26051599666022</v>
+        <v>51.73168060505985</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>36.26051600411889</v>
+        <v>58.30640787604943</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>36.26051594722301</v>
+        <v>18.46450740097395</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>36.26051599753287</v>
+        <v>50.72948620088294</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>36.26051601306459</v>
+        <v>58.77377359669738</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>36.26051594150188</v>
+        <v>9.866743530117976</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>36.26051598092354</v>
+        <v>41.5421787454204</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>36.26051599474586</v>
+        <v>50.87348584913563</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>36.26051596763787</v>
+        <v>11.30572160527435</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>36.26051601227937</v>
+        <v>39.33169075885235</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>36.26051602793189</v>
+        <v>47.86137959051169</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>36.26051598018898</v>
+        <v>28.87265003477029</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>36.26051601997736</v>
+        <v>55.06020130638358</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>36.26051603392825</v>
+        <v>63.42308744510423</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>36.2605160360082</v>
+        <v>65.47219393796132</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>36.26051605499231</v>
+        <v>72.31095981462867</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>36.26051606192368</v>
+        <v>80.17392539199992</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>36.26051600397997</v>
+        <v>32.53036289391507</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>36.26051605403584</v>
+        <v>68.05783569571666</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>36.26051606950897</v>
+        <v>77.17422400630946</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>36.26051581970425</v>
+        <v>8.475998604253547</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>36.26051585453295</v>
+        <v>33.10333873649785</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>36.26051586555639</v>
+        <v>37.73356894561876</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>36.26051584406361</v>
+        <v>13.07905695232605</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>36.26051588350398</v>
+        <v>35.01357144396468</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>36.26051589598704</v>
+        <v>38.62926080885151</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>36.26051584924937</v>
+        <v>23.40503988968127</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>36.26051588440205</v>
+        <v>43.01885031348323</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>36.26051589552804</v>
+        <v>47.03837265774393</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>36.26051590459885</v>
+        <v>48.2155725657846</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>36.26051592093677</v>
+        <v>54.33792552415879</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>36.26051592713856</v>
+        <v>57.6884509431005</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>36.26051587841454</v>
+        <v>21.90660462384841</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>36.26051592226579</v>
+        <v>45.54417987590094</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>36.26051593492679</v>
+        <v>51.95406846202751</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>36.26051588339955</v>
+        <v>8.792870067505383</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>36.26051592302669</v>
+        <v>37.98488280392779</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>36.26051593636456</v>
+        <v>45.61070898815547</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>36.26051590922092</v>
+        <v>9.084859434455591</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>36.2605159540951</v>
+        <v>34.35823351776828</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>36.26051596919903</v>
+        <v>41.09863485369149</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>36.26051591992129</v>
+        <v>23.14005306253235</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>36.26051595991706</v>
+        <v>47.03352167931902</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>36.260515973379</v>
+        <v>53.72842250098469</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>36.26051597800185</v>
+        <v>50.2834990977582</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>36.26051599736131</v>
+        <v>57.83141416505843</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>36.26051600452455</v>
+        <v>62.9489408192145</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>36.260515947537</v>
+        <v>22.91463801254505</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>36.2605159981083</v>
+        <v>55.9067655322841</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>36.26051601313623</v>
+        <v>62.76207862362925</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>36.26051594170759</v>
+        <v>12.64417817090011</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>36.26051598140064</v>
+        <v>45.07261641902663</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>36.26051599473481</v>
+        <v>53.12900403914971</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>36.26051596813758</v>
+        <v>14.75450755394587</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>36.2605160130864</v>
+        <v>43.872076376024</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>36.26051602818615</v>
+        <v>50.9562856259156</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>36.26051598060452</v>
+        <v>33.23746785178378</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>36.26051602066682</v>
+        <v>60.1641677302032</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>36.26051603412503</v>
+        <v>67.36078484178911</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>36.26051603632958</v>
+        <v>70.27725499072866</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>36.26051605513229</v>
+        <v>77.32460271820179</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>36.26051606179109</v>
+        <v>83.64975447590204</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>36.26051600379579</v>
+        <v>36.17230757695981</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>36.26051605412805</v>
+        <v>72.37310580719054</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>36.26051606908021</v>
+        <v>80.35228435115819</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>36.2605158142394</v>
+        <v>5.281438622851525</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>36.26051585053055</v>
+        <v>31.72874320901983</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>36.26051586193663</v>
+        <v>36.46056854162757</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>36.26051583862527</v>
+        <v>9.490792493450851</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>36.26051587972173</v>
+        <v>33.14290087536387</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>36.2605158926381</v>
+        <v>36.78212923727693</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>36.26051584419927</v>
+        <v>20.11165942231209</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>36.26051588082801</v>
+        <v>41.37003695416692</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>36.26051589234021</v>
+        <v>45.47952316618047</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>36.26051590142345</v>
+        <v>46.18603234079092</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>36.26051591837455</v>
+        <v>52.9184409113234</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>36.26051592471674</v>
+        <v>56.60560020715543</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>36.26051587400723</v>
+        <v>17.45198978571621</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>36.2605159198196</v>
+        <v>43.64111164456297</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>36.26051593285001</v>
+        <v>49.75619357158109</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>36.26051587788928</v>
+        <v>3.911869842212297</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>36.26051591903359</v>
+        <v>34.93497420427736</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>36.26051593288009</v>
+        <v>42.95016974304076</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>36.2605159036033</v>
+        <v>3.753393885205231</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>36.26051595019554</v>
+        <v>30.70253235155937</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>36.26051596587546</v>
+        <v>37.74445994063532</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>36.26051591489342</v>
+        <v>18.15334453944557</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>36.26051595642048</v>
+        <v>43.69851827885301</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>36.26051597039579</v>
+        <v>50.75283690218767</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>36.26051597503776</v>
+        <v>46.4733901858727</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>36.26051599506315</v>
+        <v>54.62889329099291</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>36.26051600245525</v>
+        <v>60.34029525991085</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>36.26051594326012</v>
+        <v>16.74479397695077</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>36.26051599586437</v>
+        <v>52.51031376128824</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>36.26051601142933</v>
+        <v>59.39225622191651</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>36.26051593817679</v>
+        <v>7.080842785799256</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>36.26051597938756</v>
+        <v>41.40484803459971</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>36.26051599325273</v>
+        <v>49.93727878676007</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>36.26051596461993</v>
+        <v>8.720244982696702</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>36.26051601128742</v>
+        <v>39.62530038317163</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>36.26051602698849</v>
+        <v>47.0761478518591</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>36.26051597767147</v>
+        <v>27.59302907970285</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>36.26051601926559</v>
+        <v>56.23299762633781</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>36.26051603325975</v>
+        <v>63.87320914796349</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>36.26051603542963</v>
+        <v>66.19356306736637</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>36.26051605489928</v>
+        <v>73.88236137145782</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>36.26051606178276</v>
+        <v>80.98302384248595</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>36.26051600151212</v>
+        <v>29.70308661476528</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>36.26051605388137</v>
+        <v>68.70425128885941</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>36.26051606938962</v>
+        <v>76.82463403783159</v>
       </c>
     </row>
   </sheetData>
